--- a/Phase_distribution_20.xlsx
+++ b/Phase_distribution_20.xlsx
@@ -443,7 +443,7 @@
         <v>-519.0281763951161</v>
       </c>
       <c r="B2" t="n">
-        <v>30.2621210690815</v>
+        <v>-222.3413706433885</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>-485.2634899817434</v>
       </c>
       <c r="B3" t="n">
-        <v>36.69271054183054</v>
+        <v>-215.9107811706394</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>-457.2863831977842</v>
       </c>
       <c r="B4" t="n">
-        <v>41.75620002752004</v>
+        <v>-210.8472916849501</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>-432.0657134732813</v>
       </c>
       <c r="B5" t="n">
-        <v>46.1157620800592</v>
+        <v>-206.4877296324107</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>-408.7846611378402</v>
       </c>
       <c r="B6" t="n">
-        <v>49.97084793029575</v>
+        <v>-202.6326437821742</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>-386.7866855913114</v>
       </c>
       <c r="B7" t="n">
-        <v>53.46827902305967</v>
+        <v>-199.1352126894103</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>-365.7533394881223</v>
       </c>
       <c r="B8" t="n">
-        <v>56.68445685015331</v>
+        <v>-195.9190348623166</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>-345.1655956041217</v>
       </c>
       <c r="B9" t="n">
-        <v>59.71531574045326</v>
+        <v>-192.8881759720168</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>-325.1106438990034</v>
       </c>
       <c r="B10" t="n">
-        <v>62.55988030852188</v>
+        <v>-190.0436114039481</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>-305.7159658846793</v>
       </c>
       <c r="B11" t="n">
-        <v>65.21278882748601</v>
+        <v>-187.390702884984</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>-286.473698304461</v>
       </c>
       <c r="B12" t="n">
-        <v>67.75257600520274</v>
+        <v>-184.8509157072671</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>-267.5764507108799</v>
       </c>
       <c r="B13" t="n">
-        <v>70.1600575399444</v>
+        <v>-182.4434341725257</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>-248.918336343534</v>
       </c>
       <c r="B14" t="n">
-        <v>72.45516171231853</v>
+        <v>-180.1483300001516</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>-230.4994953017578</v>
       </c>
       <c r="B15" t="n">
-        <v>74.64321948452138</v>
+        <v>-177.9602722279486</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>-212.2128877968966</v>
       </c>
       <c r="B16" t="n">
-        <v>76.74131736897323</v>
+        <v>-175.8621743434969</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>-194.1844183917594</v>
       </c>
       <c r="B17" t="n">
-        <v>78.73922162498837</v>
+        <v>-173.8642700874817</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>-176.5279928154162</v>
       </c>
       <c r="B18" t="n">
-        <v>80.62962631027483</v>
+        <v>-171.9738654021952</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>-158.7242822372662</v>
       </c>
       <c r="B19" t="n">
-        <v>82.47095308323881</v>
+        <v>-170.1325386292312</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>-141.7632770220627</v>
       </c>
       <c r="B20" t="n">
-        <v>84.16583588386015</v>
+        <v>-168.4376558286099</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>-123.8359066901819</v>
       </c>
       <c r="B21" t="n">
-        <v>85.89590493520211</v>
+        <v>-166.7075867772679</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>-106.5054625652903</v>
       </c>
       <c r="B22" t="n">
-        <v>87.50946411294632</v>
+        <v>-165.0940275995236</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>-89.65694577322438</v>
       </c>
       <c r="B23" t="n">
-        <v>89.02384991845165</v>
+        <v>-163.5796417940184</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>-73.19286698875226</v>
       </c>
       <c r="B24" t="n">
-        <v>90.4528844737811</v>
+        <v>-162.1506072386888</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>-56.35391025242333</v>
       </c>
       <c r="B25" t="n">
-        <v>91.86343254203527</v>
+        <v>-160.7400591704348</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>-40.16931764447313</v>
       </c>
       <c r="B26" t="n">
-        <v>93.17139203523644</v>
+        <v>-159.4320996772335</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>-23.75740259598671</v>
       </c>
       <c r="B27" t="n">
-        <v>94.45069120705006</v>
+        <v>-158.1528005054199</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>-7.688655945871971</v>
       </c>
       <c r="B28" t="n">
-        <v>95.65808053687903</v>
+        <v>-156.9454111755909</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>8.253260635354486</v>
       </c>
       <c r="B29" t="n">
-        <v>96.81246418094625</v>
+        <v>-155.7910275315237</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>23.96984544741914</v>
       </c>
       <c r="B30" t="n">
-        <v>97.9087646522751</v>
+        <v>-154.694727060195</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>39.59266295015006</v>
       </c>
       <c r="B31" t="n">
-        <v>98.95800802172991</v>
+        <v>-153.6454836907401</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>54.95084727542626</v>
       </c>
       <c r="B32" t="n">
-        <v>99.95064067196668</v>
+        <v>-152.6528510405032</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>70.19839695737957</v>
       </c>
       <c r="B33" t="n">
-        <v>100.898532753337</v>
+        <v>-151.704958959133</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>85.26509265298183</v>
       </c>
       <c r="B34" t="n">
-        <v>101.7988574073031</v>
+        <v>-150.8046343051669</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>100.1073268424932</v>
       </c>
       <c r="B35" t="n">
-        <v>102.6508967945451</v>
+        <v>-149.952594917925</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>114.8049776724761</v>
       </c>
       <c r="B36" t="n">
-        <v>103.4609316003664</v>
+        <v>-149.1425601121035</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>129.3577933772222</v>
       </c>
       <c r="B37" t="n">
-        <v>104.2303151548711</v>
+        <v>-148.3731765575989</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>143.6794799684103</v>
       </c>
       <c r="B38" t="n">
-        <v>104.9560924023308</v>
+        <v>-147.6473993101392</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>157.8558199890317</v>
       </c>
       <c r="B39" t="n">
-        <v>105.6441662190025</v>
+        <v>-146.9593254934675</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>171.8474169945844</v>
       </c>
       <c r="B40" t="n">
-        <v>106.2939819035782</v>
+        <v>-146.3095098088918</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>185.6498350029415</v>
       </c>
       <c r="B41" t="n">
-        <v>106.9067828227788</v>
+        <v>-145.6967088896911</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>199.2859566441936</v>
       </c>
       <c r="B42" t="n">
-        <v>107.4849326615951</v>
+        <v>-145.1185590508749</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>212.7871277597576</v>
       </c>
       <c r="B43" t="n">
-        <v>108.0309073141334</v>
+        <v>-144.5725843983365</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>226.0889753619201</v>
       </c>
       <c r="B44" t="n">
-        <v>108.5433103201833</v>
+        <v>-144.0601813922867</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>239.202210306432</v>
       </c>
       <c r="B45" t="n">
-        <v>109.0238772926169</v>
+        <v>-143.5796144198531</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>252.1766534554245</v>
       </c>
       <c r="B46" t="n">
-        <v>109.4755500917892</v>
+        <v>-143.1279416206808</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>264.9740304999615</v>
       </c>
       <c r="B47" t="n">
-        <v>109.8980478473982</v>
+        <v>-142.7054438650719</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>277.6008049525495</v>
       </c>
       <c r="B48" t="n">
-        <v>110.2926906058023</v>
+        <v>-142.3108011066677</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>290.0862598075905</v>
       </c>
       <c r="B49" t="n">
-        <v>110.6613761187633</v>
+        <v>-141.9421155937067</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>302.3759616339639</v>
       </c>
       <c r="B50" t="n">
-        <v>111.0035156457641</v>
+        <v>-141.5999760667057</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>314.5265688945749</v>
       </c>
       <c r="B51" t="n">
-        <v>111.3216720643362</v>
+        <v>-141.2818196481338</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>326.5090586276967</v>
       </c>
       <c r="B52" t="n">
-        <v>111.6159758685179</v>
+        <v>-140.9875158439523</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>338.3485484923358</v>
       </c>
       <c r="B53" t="n">
-        <v>111.887920506674</v>
+        <v>-140.7155712057959</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>350.0131928206945</v>
       </c>
       <c r="B54" t="n">
-        <v>112.1376434179807</v>
+        <v>-140.4658482944893</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>361.5369998013052</v>
       </c>
       <c r="B55" t="n">
-        <v>112.3667138595364</v>
+        <v>-140.2367778529336</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>372.9016622208125</v>
       </c>
       <c r="B56" t="n">
-        <v>112.5755516356493</v>
+        <v>-140.0279400768207</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>384.1171990886563</v>
       </c>
       <c r="B57" t="n">
-        <v>112.7651230148222</v>
+        <v>-139.8383686976477</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>395.1843630384499</v>
       </c>
       <c r="B58" t="n">
-        <v>112.9361795381923</v>
+        <v>-139.6673121742776</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>406.1084172641565</v>
       </c>
       <c r="B59" t="n">
-        <v>113.0895101056676</v>
+        <v>-139.5139816068026</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>416.8914063869648</v>
       </c>
       <c r="B60" t="n">
-        <v>113.2258182443338</v>
+        <v>-139.3776734681361</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>427.5362344049099</v>
       </c>
       <c r="B61" t="n">
-        <v>113.3457889328424</v>
+        <v>-139.2577027796276</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>438.0186435891518</v>
       </c>
       <c r="B62" t="n">
-        <v>113.4498244987581</v>
+        <v>-139.1536672137119</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>448.3872269785055</v>
       </c>
       <c r="B63" t="n">
-        <v>113.5390188054498</v>
+        <v>-139.0644729070202</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>458.6252064100898</v>
       </c>
       <c r="B64" t="n">
-        <v>113.6137618208759</v>
+        <v>-138.9897298915941</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>468.706717160966</v>
       </c>
       <c r="B65" t="n">
-        <v>113.6744694651048</v>
+        <v>-138.9290222473654</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>478.6672221854916</v>
       </c>
       <c r="B66" t="n">
-        <v>113.7219275459942</v>
+        <v>-138.8815641664759</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>488.4971876843895</v>
       </c>
       <c r="B67" t="n">
-        <v>113.7566016092399</v>
+        <v>-138.8468901032302</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>498.1890938563849</v>
       </c>
       <c r="B68" t="n">
-        <v>113.7789959693695</v>
+        <v>-138.8244957431005</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>507.7603148990669</v>
       </c>
       <c r="B69" t="n">
-        <v>113.7896519115882</v>
+        <v>-138.8138398008818</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>517.2074733386133</v>
       </c>
       <c r="B70" t="n">
-        <v>113.7890310586619</v>
+        <v>-138.8144606538082</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>526.5261584154749</v>
       </c>
       <c r="B71" t="n">
-        <v>113.7776026356403</v>
+        <v>-138.8258890768296</v>
       </c>
     </row>
   </sheetData>

--- a/Phase_distribution_20.xlsx
+++ b/Phase_distribution_20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:B348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,562 +440,2778 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>-519.0281763951161</v>
+        <v>-526.9193701202585</v>
       </c>
       <c r="B2" t="n">
-        <v>-222.3413706433885</v>
+        <v>-67.9169551889845</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>-485.2634899817434</v>
+        <v>-519.0494615908061</v>
       </c>
       <c r="B3" t="n">
-        <v>-215.9107811706394</v>
+        <v>-66.36854715113975</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>-457.2863831977842</v>
+        <v>-511.6469634236551</v>
       </c>
       <c r="B4" t="n">
-        <v>-210.8472916849501</v>
+        <v>-64.92901743274132</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>-432.0657134732813</v>
+        <v>-504.6325919690768</v>
       </c>
       <c r="B5" t="n">
-        <v>-206.4877296324107</v>
+        <v>-63.58024161191372</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>-408.7846611378402</v>
+        <v>-497.9453826089914</v>
       </c>
       <c r="B6" t="n">
-        <v>-202.6326437821742</v>
+        <v>-62.30831611554842</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>-386.7866855913114</v>
+        <v>-491.5373837060852</v>
       </c>
       <c r="B7" t="n">
-        <v>-199.1352126894103</v>
+        <v>-61.10233075697045</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>-365.7533394881223</v>
+        <v>-485.3703226699804</v>
       </c>
       <c r="B8" t="n">
-        <v>-195.9190348623166</v>
+        <v>-59.95359101849417</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>-345.1655956041217</v>
+        <v>-479.4130364397965</v>
       </c>
       <c r="B9" t="n">
-        <v>-192.8881759720168</v>
+        <v>-58.85503233016482</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>-325.1106438990034</v>
+        <v>-473.6399405825251</v>
       </c>
       <c r="B10" t="n">
-        <v>-190.0436114039481</v>
+        <v>-57.8008604671619</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>-305.7159658846793</v>
+        <v>-468.0297109811044</v>
       </c>
       <c r="B11" t="n">
-        <v>-187.390702884984</v>
+        <v>-56.78625269271134</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>-286.473698304461</v>
+        <v>-462.5643291283508</v>
       </c>
       <c r="B12" t="n">
-        <v>-184.8509157072671</v>
+        <v>-55.80714172154126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>-267.5764507108799</v>
+        <v>-457.2285154037512</v>
       </c>
       <c r="B13" t="n">
-        <v>-182.4434341725257</v>
+        <v>-54.86008088588216</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>-248.918336343534</v>
+        <v>-452.0092703440052</v>
       </c>
       <c r="B14" t="n">
-        <v>-180.1483300001516</v>
+        <v>-53.94213598479536</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>-230.4994953017578</v>
+        <v>-446.8953358246121</v>
       </c>
       <c r="B15" t="n">
-        <v>-177.9602722279486</v>
+        <v>-53.05076931790103</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>-212.2128877968966</v>
+        <v>-441.8768777321214</v>
       </c>
       <c r="B16" t="n">
-        <v>-175.8621743434969</v>
+        <v>-52.18376811682123</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>-194.1844183917594</v>
+        <v>-436.9453939368614</v>
       </c>
       <c r="B17" t="n">
-        <v>-173.8642700874817</v>
+        <v>-51.33921521638123</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>-176.5279928154162</v>
+        <v>-432.0933676894334</v>
       </c>
       <c r="B18" t="n">
-        <v>-171.9738654021952</v>
+        <v>-50.51541825217501</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>-158.7242822372662</v>
+        <v>-427.3142115045758</v>
       </c>
       <c r="B19" t="n">
-        <v>-170.1325386292312</v>
+        <v>-49.71089118185677</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>-141.7632770220627</v>
+        <v>-422.6020761075512</v>
       </c>
       <c r="B20" t="n">
-        <v>-168.4376558286099</v>
+        <v>-48.92431431137561</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>-123.8359066901819</v>
+        <v>-417.9517021691321</v>
       </c>
       <c r="B21" t="n">
-        <v>-166.7075867772679</v>
+        <v>-48.15450336022042</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>-106.5054625652903</v>
+        <v>-413.3584819076781</v>
       </c>
       <c r="B22" t="n">
-        <v>-165.0940275995236</v>
+        <v>-47.40041435001115</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>-89.65694577322438</v>
+        <v>-408.8182222556498</v>
       </c>
       <c r="B23" t="n">
-        <v>-163.5796417940184</v>
+        <v>-46.66109984067316</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>-73.19286698875226</v>
+        <v>-404.3271852041156</v>
       </c>
       <c r="B24" t="n">
-        <v>-162.1506072386888</v>
+        <v>-45.93571185251807</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>-56.35391025242333</v>
+        <v>-399.8819675891671</v>
       </c>
       <c r="B25" t="n">
-        <v>-160.7400591704348</v>
+        <v>-45.22347900573601</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>-40.16931764447313</v>
+        <v>-395.4794913427224</v>
       </c>
       <c r="B26" t="n">
-        <v>-159.4320996772335</v>
+        <v>-44.5237022149731</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>-23.75740259598671</v>
+        <v>-391.1170326833328</v>
       </c>
       <c r="B27" t="n">
-        <v>-158.1528005054199</v>
+        <v>-43.83575668385765</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>-7.688655945871971</v>
+        <v>-386.792040812207</v>
       </c>
       <c r="B28" t="n">
-        <v>-156.9454111755909</v>
+        <v>-43.15906098158891</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>8.253260635354486</v>
+        <v>-382.5022126315201</v>
       </c>
       <c r="B29" t="n">
-        <v>-155.7910275315237</v>
+        <v>-42.4930871297918</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>23.96984544741914</v>
+        <v>-378.2454740878231</v>
       </c>
       <c r="B30" t="n">
-        <v>-154.694727060195</v>
+        <v>-41.83735587894981</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>39.59266295015006</v>
+        <v>-374.0198747040579</v>
       </c>
       <c r="B31" t="n">
-        <v>-153.6454836907401</v>
+        <v>-41.19141896556911</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>54.95084727542626</v>
+        <v>-369.8236814102791</v>
       </c>
       <c r="B32" t="n">
-        <v>-152.6528510405032</v>
+        <v>-40.55487228065084</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>70.19839695737957</v>
+        <v>-365.6552474384575</v>
       </c>
       <c r="B33" t="n">
-        <v>-151.704958959133</v>
+        <v>-39.92733469322005</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>85.26509265298183</v>
+        <v>-361.5131263808555</v>
       </c>
       <c r="B34" t="n">
-        <v>-150.8046343051669</v>
+        <v>-39.30846430620031</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>100.1073268424932</v>
+        <v>-357.3959236108668</v>
       </c>
       <c r="B35" t="n">
-        <v>-149.952594917925</v>
+        <v>-38.69793517214725</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>114.8049776724761</v>
+        <v>-353.302406798825</v>
       </c>
       <c r="B36" t="n">
-        <v>-149.1425601121035</v>
+        <v>-38.09545302662323</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>129.3577933772222</v>
+        <v>-349.2313744777741</v>
       </c>
       <c r="B37" t="n">
-        <v>-148.3731765575989</v>
+        <v>-37.5007350996564</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>143.6794799684103</v>
+        <v>-345.1817624979938</v>
       </c>
       <c r="B38" t="n">
-        <v>-147.6473993101392</v>
+        <v>-36.91352517634709</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>157.8558199890317</v>
+        <v>-341.1526016800782</v>
       </c>
       <c r="B39" t="n">
-        <v>-146.9593254934675</v>
+        <v>-36.33358664817553</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>171.8474169945844</v>
+        <v>-337.1429000155274</v>
       </c>
       <c r="B40" t="n">
-        <v>-146.3095098088918</v>
+        <v>-35.76068511767633</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>185.6498350029415</v>
+        <v>-333.1518748938361</v>
       </c>
       <c r="B41" t="n">
-        <v>-145.6967088896911</v>
+        <v>-35.19462122013829</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>199.2859566441936</v>
+        <v>-329.178685492363</v>
       </c>
       <c r="B42" t="n">
-        <v>-145.1185590508749</v>
+        <v>-34.63519189042739</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>212.7871277597576</v>
+        <v>-325.2226107846294</v>
       </c>
       <c r="B43" t="n">
-        <v>-144.5725843983365</v>
+        <v>-34.08221536061336</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>226.0889753619201</v>
+        <v>-321.282960754703</v>
       </c>
       <c r="B44" t="n">
-        <v>-144.0601813922867</v>
+        <v>-33.53551818675305</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>239.202210306432</v>
+        <v>-317.3590819130402</v>
       </c>
       <c r="B45" t="n">
-        <v>-143.5796144198531</v>
+        <v>-32.99493577115183</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>252.1766534554245</v>
+        <v>-313.4503846987536</v>
       </c>
       <c r="B46" t="n">
-        <v>-143.1279416206808</v>
+        <v>-32.46031584076619</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>264.9740304999615</v>
+        <v>-309.5563137631563</v>
       </c>
       <c r="B47" t="n">
-        <v>-142.7054438650719</v>
+        <v>-31.93151404318573</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>277.6008049525495</v>
+        <v>-305.6763474367812</v>
       </c>
       <c r="B48" t="n">
-        <v>-142.3108011066677</v>
+        <v>-31.40839364585861</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>290.0862598075905</v>
+        <v>-301.8099967626152</v>
       </c>
       <c r="B49" t="n">
-        <v>-141.9421155937067</v>
+        <v>-30.89082518634322</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>302.3759616339639</v>
+        <v>-297.9568022705811</v>
       </c>
       <c r="B50" t="n">
-        <v>-141.5999760667057</v>
+        <v>-30.37868583449509</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>314.5265688945749</v>
+        <v>-294.1163579367847</v>
       </c>
       <c r="B51" t="n">
-        <v>-141.2818196481338</v>
+        <v>-29.87186235294081</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>326.5090586276967</v>
+        <v>-290.2882757308508</v>
       </c>
       <c r="B52" t="n">
-        <v>-140.9875158439523</v>
+        <v>-29.37024617110151</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>338.3485484923358</v>
+        <v>-286.4721385391127</v>
       </c>
       <c r="B53" t="n">
-        <v>-140.7155712057959</v>
+        <v>-28.87372715573835</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>350.0131928206945</v>
+        <v>-282.6676469639272</v>
       </c>
       <c r="B54" t="n">
-        <v>-140.4658482944893</v>
+        <v>-28.3822126013618</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>361.5369998013052</v>
+        <v>-278.8744480580962</v>
       </c>
       <c r="B55" t="n">
-        <v>-140.2367778529336</v>
+        <v>-27.89560476177516</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>372.9016622208125</v>
+        <v>-275.0922487588722</v>
       </c>
       <c r="B56" t="n">
-        <v>-140.0279400768207</v>
+        <v>-27.413815456583</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>384.1171990886563</v>
+        <v>-271.3207734519904</v>
       </c>
       <c r="B57" t="n">
-        <v>-139.8383686976477</v>
+        <v>-26.93676041990645</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>395.1843630384499</v>
+        <v>-267.5597477125488</v>
       </c>
       <c r="B58" t="n">
-        <v>-139.6673121742776</v>
+        <v>-26.46435715746784</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>406.1084172641565</v>
+        <v>-263.8089136358803</v>
       </c>
       <c r="B59" t="n">
-        <v>-139.5139816068026</v>
+        <v>-25.996526817731</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>416.8914063869648</v>
+        <v>-260.068056045402</v>
       </c>
       <c r="B60" t="n">
-        <v>-139.3776734681361</v>
+        <v>-25.53319732638013</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>427.5362344049099</v>
+        <v>-256.3369300533951</v>
       </c>
       <c r="B61" t="n">
-        <v>-139.2577027796276</v>
+        <v>-25.07429429732184</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>438.0186435891518</v>
+        <v>-252.6153583686963</v>
       </c>
       <c r="B62" t="n">
-        <v>-139.1536672137119</v>
+        <v>-24.619752979335</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>448.3872269785055</v>
+        <v>-248.9031241235086</v>
       </c>
       <c r="B63" t="n">
-        <v>-139.0644729070202</v>
+        <v>-24.16950499156968</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>458.6252064100898</v>
+        <v>-245.2000397135344</v>
       </c>
       <c r="B64" t="n">
-        <v>-138.9897298915941</v>
+        <v>-23.72348673210701</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>468.706717160966</v>
+        <v>-241.5059813184401</v>
       </c>
       <c r="B65" t="n">
-        <v>-138.9290222473654</v>
+        <v>-23.28164334834742</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>478.6672221854916</v>
+        <v>-237.8207495254361</v>
       </c>
       <c r="B66" t="n">
-        <v>-138.8815641664759</v>
+        <v>-22.84391195586778</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>488.4971876843895</v>
+        <v>-234.1442161153508</v>
       </c>
       <c r="B67" t="n">
-        <v>-138.8468901032302</v>
+        <v>-22.41023918690888</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>498.1890938563849</v>
+        <v>-230.4762184477781</v>
       </c>
       <c r="B68" t="n">
-        <v>-138.8244957431005</v>
+        <v>-21.98056855178038</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>507.7603148990669</v>
+        <v>-226.8166544019241</v>
       </c>
       <c r="B69" t="n">
-        <v>-138.8138398008818</v>
+        <v>-21.55485156857603</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>517.2074733386133</v>
+        <v>-223.1653804576484</v>
       </c>
       <c r="B70" t="n">
-        <v>-138.8144606538082</v>
+        <v>-21.1330357700059</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>526.5261584154749</v>
+        <v>-219.5223020518176</v>
       </c>
       <c r="B71" t="n">
-        <v>-138.8258890768296</v>
+        <v>-20.71507518515483</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>-215.8872912405044</v>
+      </c>
+      <c r="B72" t="n">
+        <v>-20.30092078201736</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>-212.2602682445893</v>
+      </c>
+      <c r="B73" t="n">
+        <v>-19.89052978069961</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>-208.6411268930114</v>
+      </c>
+      <c r="B74" t="n">
+        <v>-19.48385710316524</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>-205.0297759199447</v>
+      </c>
+      <c r="B75" t="n">
+        <v>-19.08086005651623</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>-201.4261468742722</v>
+      </c>
+      <c r="B76" t="n">
+        <v>-18.68149913691275</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>-197.830159747274</v>
+      </c>
+      <c r="B77" t="n">
+        <v>-18.28573416144494</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>-194.2417326365624</v>
+      </c>
+      <c r="B78" t="n">
+        <v>-17.89352535448347</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>-190.6608277297893</v>
+      </c>
+      <c r="B79" t="n">
+        <v>-17.50483831841026</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>-187.0873422530425</v>
+      </c>
+      <c r="B80" t="n">
+        <v>-17.11963214419399</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>-183.5212474452465</v>
+      </c>
+      <c r="B81" t="n">
+        <v>-16.73787447026493</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>-179.9624879524983</v>
+      </c>
+      <c r="B82" t="n">
+        <v>-16.35953054039172</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>-176.4110124577</v>
+      </c>
+      <c r="B83" t="n">
+        <v>-15.98456651646404</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>-172.8667662351851</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-15.61294867758838</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>-169.3297204934769</v>
+      </c>
+      <c r="B85" t="n">
+        <v>-15.24464646924147</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>-165.7998275441826</v>
+      </c>
+      <c r="B86" t="n">
+        <v>-14.87962778253035</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>-162.2770578095606</v>
+      </c>
+      <c r="B87" t="n">
+        <v>-14.51786280215288</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>-158.7613700637016</v>
+      </c>
+      <c r="B88" t="n">
+        <v>-14.15932091059528</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>-155.2527407245204</v>
+      </c>
+      <c r="B89" t="n">
+        <v>-13.80397367904803</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>-151.751134404164</v>
+      </c>
+      <c r="B90" t="n">
+        <v>-13.45179184731609</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>-148.2565327867427</v>
+      </c>
+      <c r="B91" t="n">
+        <v>-13.10274823324247</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>-144.7689128347823</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-12.75681551338542</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>-141.2882397207078</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-12.41396553995199</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>-137.8145162598768</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-12.07417419404146</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>-134.3477119870239</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-11.73741438689427</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>-130.8878197807778</v>
+      </c>
+      <c r="B96" t="n">
+        <v>-11.40366161080379</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>-127.4348059980117</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-11.07288909545045</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>-123.9886810944142</v>
+      </c>
+      <c r="B98" t="n">
+        <v>-10.74507458597327</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>-120.5494223749855</v>
+      </c>
+      <c r="B99" t="n">
+        <v>-10.42019292013924</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>-117.1170224657908</v>
+      </c>
+      <c r="B100" t="n">
+        <v>-10.09822066457752</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>-113.6914826064419</v>
+      </c>
+      <c r="B101" t="n">
+        <v>-9.779135437344451</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>-110.2727844082305</v>
+      </c>
+      <c r="B102" t="n">
+        <v>-9.462913272701201</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>-106.860918398118</v>
+      </c>
+      <c r="B103" t="n">
+        <v>-9.149531293320962</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>-103.455883073995</v>
+      </c>
+      <c r="B104" t="n">
+        <v>-8.838967591453354</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>-100.0576914383155</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-8.531201789207216</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>-96.66631692131345</v>
+      </c>
+      <c r="B106" t="n">
+        <v>-8.226210142909906</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>-93.28177533333127</v>
+      </c>
+      <c r="B107" t="n">
+        <v>-7.923972957341846</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>-89.90405564744998</v>
+      </c>
+      <c r="B108" t="n">
+        <v>-7.624468332692857</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>-86.53316169151022</v>
+      </c>
+      <c r="B109" t="n">
+        <v>-7.327675903267647</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>-83.16909183546635</v>
+      </c>
+      <c r="B110" t="n">
+        <v>-7.033575018293703</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>-79.81185794946877</v>
+      </c>
+      <c r="B111" t="n">
+        <v>-6.742146395534718</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>-76.4614400727144</v>
+      </c>
+      <c r="B112" t="n">
+        <v>-6.45336818346928</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>-73.11785249175017</v>
+      </c>
+      <c r="B113" t="n">
+        <v>-6.167221690529033</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>-69.78109601086103</v>
+      </c>
+      <c r="B114" t="n">
+        <v>-5.883687236392262</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>-66.451179550634</v>
+      </c>
+      <c r="B115" t="n">
+        <v>-5.602746005900315</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>-63.12809201459923</v>
+      </c>
+      <c r="B116" t="n">
+        <v>-5.324377673646069</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>-59.8118571627229</v>
+      </c>
+      <c r="B117" t="n">
+        <v>-5.048565008608506</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>-56.50247811570387</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-4.775289201558564</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>-53.19993346155022</v>
+      </c>
+      <c r="B119" t="n">
+        <v>-4.504529605897602</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>-49.90425500315826</v>
+      </c>
+      <c r="B120" t="n">
+        <v>-4.236270112682519</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>-46.61543385526067</v>
+      </c>
+      <c r="B121" t="n">
+        <v>-3.97049143101674</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>-43.33348953816236</v>
+      </c>
+      <c r="B122" t="n">
+        <v>-3.707176727939952</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>-40.0584092112795</v>
+      </c>
+      <c r="B123" t="n">
+        <v>-3.446306721023035</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>-36.79021151449422</v>
+      </c>
+      <c r="B124" t="n">
+        <v>-3.187864799480366</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>-33.5288914030892</v>
+      </c>
+      <c r="B125" t="n">
+        <v>-2.931832616523167</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>-30.27446921877959</v>
+      </c>
+      <c r="B126" t="n">
+        <v>-2.678193965301972</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>-27.02693309112121</v>
+      </c>
+      <c r="B127" t="n">
+        <v>-2.426930264604977</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>-23.78632159582706</v>
+      </c>
+      <c r="B128" t="n">
+        <v>-2.178026973235745</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>-20.55259485260009</v>
+      </c>
+      <c r="B129" t="n">
+        <v>-1.931463654073696</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>-17.32579688275771</v>
+      </c>
+      <c r="B130" t="n">
+        <v>-1.687226434824709</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>-14.10591875353204</v>
+      </c>
+      <c r="B131" t="n">
+        <v>-1.445297527841888</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>-10.89295691110271</v>
+      </c>
+      <c r="B132" t="n">
+        <v>-1.205659709629685</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>-7.686938608847767</v>
+      </c>
+      <c r="B133" t="n">
+        <v>-0.9682981794842078</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>-4.487860530534255</v>
+      </c>
+      <c r="B134" t="n">
+        <v>-0.7331959796291017</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>-1.295721020492082</v>
+      </c>
+      <c r="B135" t="n">
+        <v>-0.5003364191652793</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>1.889460848452401</v>
+      </c>
+      <c r="B136" t="n">
+        <v>-0.2697044431055815</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>5.067691254558975</v>
+      </c>
+      <c r="B137" t="n">
+        <v>-0.04128328263030312</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>8.238955048489665</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.1849421686095241</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>11.4032433170553</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.4089873573724958</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>14.56055790057622</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.630868372019961</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>17.71089435779293</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.8506007320965239</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>20.85424285956482</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1.068199468143234</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>23.99060578892434</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1.283680341897082</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>27.11997331710234</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1.497058157063748</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>30.24232962316886</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1.708347211708627</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>33.35769273792462</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1.917563980519787</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>36.46603124802262</v>
+      </c>
+      <c r="B147" t="n">
+        <v>2.124721499636394</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>39.56736311729954</v>
+      </c>
+      <c r="B148" t="n">
+        <v>2.329836004731135</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>42.66167264274299</v>
+      </c>
+      <c r="B149" t="n">
+        <v>2.532921377795645</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>45.74896226140002</v>
+      </c>
+      <c r="B150" t="n">
+        <v>2.73399259468502</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>48.82922755413867</v>
+      </c>
+      <c r="B151" t="n">
+        <v>2.933064071664091</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>51.90244810235477</v>
+      </c>
+      <c r="B152" t="n">
+        <v>3.130149099846761</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>54.9686467131745</v>
+      </c>
+      <c r="B153" t="n">
+        <v>3.325263640151888</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>58.02780902525124</v>
+      </c>
+      <c r="B154" t="n">
+        <v>3.518421161449027</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>61.0799209484712</v>
+      </c>
+      <c r="B155" t="n">
+        <v>3.709635069897587</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>64.12499928492365</v>
+      </c>
+      <c r="B156" t="n">
+        <v>3.898920605244001</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>67.16303598916512</v>
+      </c>
+      <c r="B157" t="n">
+        <v>4.086291342640692</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>70.19401540465216</v>
+      </c>
+      <c r="B158" t="n">
+        <v>4.271760304844491</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>73.21794654471745</v>
+      </c>
+      <c r="B159" t="n">
+        <v>4.455341933577472</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>76.2348306044349</v>
+      </c>
+      <c r="B160" t="n">
+        <v>4.637050082420217</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>79.24465813941407</v>
+      </c>
+      <c r="B161" t="n">
+        <v>4.816897868921274</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>82.24743153704677</v>
+      </c>
+      <c r="B162" t="n">
+        <v>4.99489902775295</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>85.24315430701127</v>
+      </c>
+      <c r="B163" t="n">
+        <v>5.171067256521553</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>88.23181637895682</v>
+      </c>
+      <c r="B164" t="n">
+        <v>5.345415360099963</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>91.21341574947361</v>
+      </c>
+      <c r="B165" t="n">
+        <v>5.51795653115397</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>94.18797049485327</v>
+      </c>
+      <c r="B166" t="n">
+        <v>5.688705019068095</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>97.15545677740596</v>
+      </c>
+      <c r="B167" t="n">
+        <v>5.857672568999163</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>100.1158975006854</v>
+      </c>
+      <c r="B168" t="n">
+        <v>6.024873506485392</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>103.0692771782141</v>
+      </c>
+      <c r="B169" t="n">
+        <v>6.190319881432856</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>106.0156016299314</v>
+      </c>
+      <c r="B170" t="n">
+        <v>6.354024860414142</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>108.9548685740357</v>
+      </c>
+      <c r="B171" t="n">
+        <v>6.516001065067513</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>111.8870770446752</v>
+      </c>
+      <c r="B172" t="n">
+        <v>6.676261104105095</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>114.8122444711455</v>
+      </c>
+      <c r="B173" t="n">
+        <v>6.834818493216318</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>117.7303553435704</v>
+      </c>
+      <c r="B174" t="n">
+        <v>6.991684866803553</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>120.6414171005184</v>
+      </c>
+      <c r="B175" t="n">
+        <v>7.14687301954342</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>123.5454383735789</v>
+      </c>
+      <c r="B176" t="n">
+        <v>7.300395710840633</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>126.4424076531209</v>
+      </c>
+      <c r="B177" t="n">
+        <v>7.452264549550847</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>129.3323395273779</v>
+      </c>
+      <c r="B178" t="n">
+        <v>7.602492432780053</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>132.2152329474625</v>
+      </c>
+      <c r="B179" t="n">
+        <v>7.751091347375393</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>135.0910902312799</v>
+      </c>
+      <c r="B180" t="n">
+        <v>7.898073372238457</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>137.9599131063858</v>
+      </c>
+      <c r="B181" t="n">
+        <v>8.043450472189932</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>140.8217141338421</v>
+      </c>
+      <c r="B182" t="n">
+        <v>8.187235071624315</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>143.6764829578034</v>
+      </c>
+      <c r="B183" t="n">
+        <v>8.329438358162434</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>146.5242292960098</v>
+      </c>
+      <c r="B184" t="n">
+        <v>8.470072446531873</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>149.3649684984404</v>
+      </c>
+      <c r="B185" t="n">
+        <v>8.609149632521024</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>152.1986937871062</v>
+      </c>
+      <c r="B186" t="n">
+        <v>8.746681040589294</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>155.0254067233517</v>
+      </c>
+      <c r="B187" t="n">
+        <v>8.882678130959846</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>157.8451315015031</v>
+      </c>
+      <c r="B188" t="n">
+        <v>9.017153361428001</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>160.6578450022434</v>
+      </c>
+      <c r="B189" t="n">
+        <v>9.150116848929315</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>163.4635800283524</v>
+      </c>
+      <c r="B190" t="n">
+        <v>9.281581284798449</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>166.2623180993677</v>
+      </c>
+      <c r="B191" t="n">
+        <v>9.411556862798221</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>169.0540809666216</v>
+      </c>
+      <c r="B192" t="n">
+        <v>9.54005557947599</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>171.8388767572892</v>
+      </c>
+      <c r="B193" t="n">
+        <v>9.667088706308107</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>174.6166945419903</v>
+      </c>
+      <c r="B194" t="n">
+        <v>9.792666574121483</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>177.3875618351377</v>
+      </c>
+      <c r="B195" t="n">
+        <v>9.916801176972427</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>180.1514721694167</v>
+      </c>
+      <c r="B196" t="n">
+        <v>10.0395028941789</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>182.9084315445101</v>
+      </c>
+      <c r="B197" t="n">
+        <v>10.16078259387018</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>185.6584649147555</v>
+      </c>
+      <c r="B198" t="n">
+        <v>10.28065188998249</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>188.4015596257859</v>
+      </c>
+      <c r="B199" t="n">
+        <v>10.39912067356983</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>191.1377314499772</v>
+      </c>
+      <c r="B200" t="n">
+        <v>10.5162000011311</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>193.8669829260685</v>
+      </c>
+      <c r="B201" t="n">
+        <v>10.63190028086802</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>196.5893314536397</v>
+      </c>
+      <c r="B202" t="n">
+        <v>10.74623247400245</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>199.3047731069066</v>
+      </c>
+      <c r="B203" t="n">
+        <v>10.85920656783978</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202.0133279546432</v>
+      </c>
+      <c r="B204" t="n">
+        <v>10.97083347721178</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204.715000568661</v>
+      </c>
+      <c r="B205" t="n">
+        <v>11.08112339382478</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>207.4097981506017</v>
+      </c>
+      <c r="B206" t="n">
+        <v>11.19008654661084</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>210.0977227508206</v>
+      </c>
+      <c r="B207" t="n">
+        <v>11.29773288716149</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>212.778809144213</v>
+      </c>
+      <c r="B208" t="n">
+        <v>11.40407359528675</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>215.4530337920561</v>
+      </c>
+      <c r="B209" t="n">
+        <v>11.50911745842907</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>218.1204278745524</v>
+      </c>
+      <c r="B210" t="n">
+        <v>11.61287535905572</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>220.7809961603052</v>
+      </c>
+      <c r="B211" t="n">
+        <v>11.71535706140469</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>223.4347440219834</v>
+      </c>
+      <c r="B212" t="n">
+        <v>11.81657228763541</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>226.0816784244867</v>
+      </c>
+      <c r="B213" t="n">
+        <v>11.91653075439825</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>228.7218232581615</v>
+      </c>
+      <c r="B214" t="n">
+        <v>12.01524274085466</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>231.3551779530178</v>
+      </c>
+      <c r="B215" t="n">
+        <v>12.11271753353185</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>233.9817564837888</v>
+      </c>
+      <c r="B216" t="n">
+        <v>12.20896489460671</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>236.6015710411354</v>
+      </c>
+      <c r="B217" t="n">
+        <v>12.30399444620969</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>239.2146282699322</v>
+      </c>
+      <c r="B218" t="n">
+        <v>12.39781554001314</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>241.8209442027032</v>
+      </c>
+      <c r="B219" t="n">
+        <v>12.49043779599566</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>244.4205261601406</v>
+      </c>
+      <c r="B220" t="n">
+        <v>12.58187045257156</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>247.0133846036775</v>
+      </c>
+      <c r="B221" t="n">
+        <v>12.67212279351139</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>249.5995340475916</v>
+      </c>
+      <c r="B222" t="n">
+        <v>12.76120417405735</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>252.1789856658358</v>
+      </c>
+      <c r="B223" t="n">
+        <v>12.84912376354606</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>254.751750435084</v>
+      </c>
+      <c r="B224" t="n">
+        <v>12.93589065747238</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>257.31783787316</v>
+      </c>
+      <c r="B225" t="n">
+        <v>13.02151383655158</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>259.8772678452064</v>
+      </c>
+      <c r="B226" t="n">
+        <v>13.10600255751399</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>262.4300365025316</v>
+      </c>
+      <c r="B227" t="n">
+        <v>13.18936522905597</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>264.9761773755811</v>
+      </c>
+      <c r="B228" t="n">
+        <v>13.27161141702265</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>267.5156851681735</v>
+      </c>
+      <c r="B229" t="n">
+        <v>13.35274935766967</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>270.0485850437698</v>
+      </c>
+      <c r="B230" t="n">
+        <v>13.43278820375767</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>272.5748670883901</v>
+      </c>
+      <c r="B231" t="n">
+        <v>13.51173593513255</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>275.0945782388926</v>
+      </c>
+      <c r="B232" t="n">
+        <v>13.58960224521476</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>277.6076988376453</v>
+      </c>
+      <c r="B233" t="n">
+        <v>13.66639469225083</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>280.1142641989478</v>
+      </c>
+      <c r="B234" t="n">
+        <v>13.74212246675</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>282.6142782016396</v>
+      </c>
+      <c r="B235" t="n">
+        <v>13.81679373131595</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>285.1077595589808</v>
+      </c>
+      <c r="B236" t="n">
+        <v>13.89041703342437</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>287.5947108878601</v>
+      </c>
+      <c r="B237" t="n">
+        <v>13.96300038312526</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>290.0751543747328</v>
+      </c>
+      <c r="B238" t="n">
+        <v>14.03455230368684</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>292.5490958514175</v>
+      </c>
+      <c r="B239" t="n">
+        <v>14.10508078087963</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>295.0165545002923</v>
+      </c>
+      <c r="B240" t="n">
+        <v>14.17459412293886</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>297.4775445115875</v>
+      </c>
+      <c r="B241" t="n">
+        <v>14.24310043110347</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>299.932077016485</v>
+      </c>
+      <c r="B242" t="n">
+        <v>14.31060766135317</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>302.3801727325356</v>
+      </c>
+      <c r="B243" t="n">
+        <v>14.37712397147439</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>304.8218332542154</v>
+      </c>
+      <c r="B244" t="n">
+        <v>14.4426569398739</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>307.2570781340167</v>
+      </c>
+      <c r="B245" t="n">
+        <v>14.50721457453685</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>309.6859246660832</v>
+      </c>
+      <c r="B246" t="n">
+        <v>14.57080475793711</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>312.1083875991541</v>
+      </c>
+      <c r="B247" t="n">
+        <v>14.63343524390163</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>314.5244662899128</v>
+      </c>
+      <c r="B248" t="n">
+        <v>14.69511333640412</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>316.9341984090269</v>
+      </c>
+      <c r="B249" t="n">
+        <v>14.75584725986215</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>319.3375801824552</v>
+      </c>
+      <c r="B250" t="n">
+        <v>14.81564412604632</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>321.7346358838066</v>
+      </c>
+      <c r="B251" t="n">
+        <v>14.87451169688791</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>324.1253770227125</v>
+      </c>
+      <c r="B252" t="n">
+        <v>14.93245735717156</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>326.5098112229128</v>
+      </c>
+      <c r="B253" t="n">
+        <v>14.98948834639472</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>328.8879653047019</v>
+      </c>
+      <c r="B254" t="n">
+        <v>15.04561230642759</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>331.2598451814972</v>
+      </c>
+      <c r="B255" t="n">
+        <v>15.10083632412827</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>333.6254602214378</v>
+      </c>
+      <c r="B256" t="n">
+        <v>15.15516752055504</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>335.9848418260975</v>
+      </c>
+      <c r="B257" t="n">
+        <v>15.20861346381309</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>338.3379915273155</v>
+      </c>
+      <c r="B258" t="n">
+        <v>15.26118098361135</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>340.6849350458421</v>
+      </c>
+      <c r="B259" t="n">
+        <v>15.31287740075371</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>343.0256714169606</v>
+      </c>
+      <c r="B260" t="n">
+        <v>15.36370939296751</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>345.360228655472</v>
+      </c>
+      <c r="B261" t="n">
+        <v>15.41368421969156</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>347.6886269365155</v>
+      </c>
+      <c r="B262" t="n">
+        <v>15.46280890654458</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>350.010855211745</v>
+      </c>
+      <c r="B263" t="n">
+        <v>15.51108977533548</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>352.3269550363208</v>
+      </c>
+      <c r="B264" t="n">
+        <v>15.5585341965953</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>354.6369325494151</v>
+      </c>
+      <c r="B265" t="n">
+        <v>15.60514874681169</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>356.9407952005436</v>
+      </c>
+      <c r="B266" t="n">
+        <v>15.65093998723466</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>359.2385681077162</v>
+      </c>
+      <c r="B267" t="n">
+        <v>15.69591477990377</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>361.5302653017673</v>
+      </c>
+      <c r="B268" t="n">
+        <v>15.74007971152622</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>363.8159021405576</v>
+      </c>
+      <c r="B269" t="n">
+        <v>15.78344134425492</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>366.0954914725225</v>
+      </c>
+      <c r="B270" t="n">
+        <v>15.8260061430197</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>368.3690436771642</v>
+      </c>
+      <c r="B271" t="n">
+        <v>15.86778048038462</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>370.6365818632794</v>
+      </c>
+      <c r="B272" t="n">
+        <v>15.90877091304799</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>372.8981170338952</v>
+      </c>
+      <c r="B273" t="n">
+        <v>15.94898372543986</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>375.1536721448855</v>
+      </c>
+      <c r="B274" t="n">
+        <v>15.98842536515116</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>377.4032490816111</v>
+      </c>
+      <c r="B275" t="n">
+        <v>16.02710186281493</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>379.6468757135526</v>
+      </c>
+      <c r="B276" t="n">
+        <v>16.06501965168587</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>381.8845584280612</v>
+      </c>
+      <c r="B277" t="n">
+        <v>16.10218474860798</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>384.1163132634015</v>
+      </c>
+      <c r="B278" t="n">
+        <v>16.13860328917229</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>386.3421670211279</v>
+      </c>
+      <c r="B279" t="n">
+        <v>16.17428153171147</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>388.562127428448</v>
+      </c>
+      <c r="B280" t="n">
+        <v>16.20922537680082</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>390.7762061689967</v>
+      </c>
+      <c r="B281" t="n">
+        <v>16.24344074767657</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>392.9844185535478</v>
+      </c>
+      <c r="B282" t="n">
+        <v>16.27693357990344</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>395.1867903790031</v>
+      </c>
+      <c r="B283" t="n">
+        <v>16.3097099176203</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>397.3833242491023</v>
+      </c>
+      <c r="B284" t="n">
+        <v>16.34177541212941</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>399.5740397237847</v>
+      </c>
+      <c r="B285" t="n">
+        <v>16.37313592417803</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>401.7589631355382</v>
+      </c>
+      <c r="B286" t="n">
+        <v>16.40379735881953</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>403.938093200545</v>
+      </c>
+      <c r="B287" t="n">
+        <v>16.4337651881886</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>406.1114557832545</v>
+      </c>
+      <c r="B288" t="n">
+        <v>16.46304522067783</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>408.2790573768015</v>
+      </c>
+      <c r="B289" t="n">
+        <v>16.49164295602668</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>410.4409268621952</v>
+      </c>
+      <c r="B290" t="n">
+        <v>16.51956414616103</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>412.5970735484506</v>
+      </c>
+      <c r="B291" t="n">
+        <v>16.54681423997241</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>414.7475038949397</v>
+      </c>
+      <c r="B292" t="n">
+        <v>16.57339861515027</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>416.8922455949494</v>
+      </c>
+      <c r="B293" t="n">
+        <v>16.59932287014649</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>419.0313111463882</v>
+      </c>
+      <c r="B294" t="n">
+        <v>16.62459236998802</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>421.1647091051802</v>
+      </c>
+      <c r="B295" t="n">
+        <v>16.64921239574483</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>423.2924639524929</v>
+      </c>
+      <c r="B296" t="n">
+        <v>16.67318837132976</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>425.4145862424116</v>
+      </c>
+      <c r="B297" t="n">
+        <v>16.69652551793413</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>427.5310876117836</v>
+      </c>
+      <c r="B298" t="n">
+        <v>16.71922903217916</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>429.6419922613654</v>
+      </c>
+      <c r="B299" t="n">
+        <v>16.7413042034334</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>431.7473137867497</v>
+      </c>
+      <c r="B300" t="n">
+        <v>16.76275616427031</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>433.8470579551286</v>
+      </c>
+      <c r="B301" t="n">
+        <v>16.78358993217344</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>435.9412545277418</v>
+      </c>
+      <c r="B302" t="n">
+        <v>16.8038107232515</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>438.029900130601</v>
+      </c>
+      <c r="B303" t="n">
+        <v>16.82342339175662</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>440.1130280127317</v>
+      </c>
+      <c r="B304" t="n">
+        <v>16.8424331016289</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>442.1906516431125</v>
+      </c>
+      <c r="B305" t="n">
+        <v>16.86084478599201</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>444.2627759361079</v>
+      </c>
+      <c r="B306" t="n">
+        <v>16.87866326859125</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>446.3294148758092</v>
+      </c>
+      <c r="B307" t="n">
+        <v>16.89589341986843</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>448.3905972726382</v>
+      </c>
+      <c r="B308" t="n">
+        <v>16.91254019106896</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>450.4463320677484</v>
+      </c>
+      <c r="B309" t="n">
+        <v>16.92860832856752</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>452.4966292175175</v>
+      </c>
+      <c r="B310" t="n">
+        <v>16.94410255508345</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>454.5415048860616</v>
+      </c>
+      <c r="B311" t="n">
+        <v>16.95902760581012</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>456.5809831741348</v>
+      </c>
+      <c r="B312" t="n">
+        <v>16.97338823260554</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>458.6150683785156</v>
+      </c>
+      <c r="B313" t="n">
+        <v>16.98718900943464</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>460.6437805229072</v>
+      </c>
+      <c r="B314" t="n">
+        <v>17.00043458542916</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>462.6671347638036</v>
+      </c>
+      <c r="B315" t="n">
+        <v>17.01312953844993</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>464.6851434559218</v>
+      </c>
+      <c r="B316" t="n">
+        <v>17.02527839372408</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>466.6978274305096</v>
+      </c>
+      <c r="B317" t="n">
+        <v>17.03688569125359</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>468.7051937557873</v>
+      </c>
+      <c r="B318" t="n">
+        <v>17.04795585551835</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>470.7072646086471</v>
+      </c>
+      <c r="B319" t="n">
+        <v>17.0584933613822</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>472.7040444820921</v>
+      </c>
+      <c r="B320" t="n">
+        <v>17.06850255509073</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>474.6955587812768</v>
+      </c>
+      <c r="B321" t="n">
+        <v>17.0779878556377</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>476.6818155078609</v>
+      </c>
+      <c r="B322" t="n">
+        <v>17.08695356073525</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>478.662830988029</v>
+      </c>
+      <c r="B323" t="n">
+        <v>17.09540397525626</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>480.6386240829613</v>
+      </c>
+      <c r="B324" t="n">
+        <v>17.10334337858265</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>482.6092049215792</v>
+      </c>
+      <c r="B325" t="n">
+        <v>17.11077598061814</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>484.5745883270043</v>
+      </c>
+      <c r="B326" t="n">
+        <v>17.11770597845643</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>486.5347883047288</v>
+      </c>
+      <c r="B327" t="n">
+        <v>17.12413753342031</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>488.4898241526716</v>
+      </c>
+      <c r="B328" t="n">
+        <v>17.1300747900936</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>490.4397028392164</v>
+      </c>
+      <c r="B329" t="n">
+        <v>17.13552182302197</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>492.3844448910833</v>
+      </c>
+      <c r="B330" t="n">
+        <v>17.14048271480357</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>494.3240625892352</v>
+      </c>
+      <c r="B331" t="n">
+        <v>17.14496149216438</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>496.2585664441622</v>
+      </c>
+      <c r="B332" t="n">
+        <v>17.14896214875404</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>498.1879778531416</v>
+      </c>
+      <c r="B333" t="n">
+        <v>17.15248866908229</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>500.1123030458781</v>
+      </c>
+      <c r="B334" t="n">
+        <v>17.15554497741726</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>502.0315641169626</v>
+      </c>
+      <c r="B335" t="n">
+        <v>17.15813499430527</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>503.9457724061581</v>
+      </c>
+      <c r="B336" t="n">
+        <v>17.16026259144206</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>505.8549376321583</v>
+      </c>
+      <c r="B337" t="n">
+        <v>17.16193161157699</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>507.7590801773821</v>
+      </c>
+      <c r="B338" t="n">
+        <v>17.16314587699259</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>509.6582112236222</v>
+      </c>
+      <c r="B339" t="n">
+        <v>17.1639091714739</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>511.5523430783143</v>
+      </c>
+      <c r="B340" t="n">
+        <v>17.16422525186084</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>513.4414908863874</v>
+      </c>
+      <c r="B341" t="n">
+        <v>17.16409784659083</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>515.3256716313854</v>
+      </c>
+      <c r="B342" t="n">
+        <v>17.16353065298995</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>517.2048907625442</v>
+      </c>
+      <c r="B343" t="n">
+        <v>17.16252734402997</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>519.0791745213467</v>
+      </c>
+      <c r="B344" t="n">
+        <v>17.16109155339956</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>520.9485266480824</v>
+      </c>
+      <c r="B345" t="n">
+        <v>17.15922689979556</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>522.8129604045726</v>
+      </c>
+      <c r="B346" t="n">
+        <v>17.15693697009715</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>524.6724955597374</v>
+      </c>
+      <c r="B347" t="n">
+        <v>17.15422531328846</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>526.5271401237918</v>
+      </c>
+      <c r="B348" t="n">
+        <v>17.15109546610387</v>
       </c>
     </row>
   </sheetData>

--- a/Phase_distribution_20.xlsx
+++ b/Phase_distribution_20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B348"/>
+  <dimension ref="A1:B307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,2778 +440,2450 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>-526.9193701202585</v>
+        <v>-521.7865581161763</v>
       </c>
       <c r="B2" t="n">
-        <v>-67.9169551889845</v>
+        <v>-135.3847952936802</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>-519.0494615908061</v>
+        <v>-513.2596853534096</v>
       </c>
       <c r="B3" t="n">
-        <v>-66.36854715113975</v>
+        <v>-133.721044998267</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>-511.6469634236551</v>
+        <v>-505.2514905121213</v>
       </c>
       <c r="B4" t="n">
-        <v>-64.92901743274132</v>
+        <v>-132.1784619107348</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>-504.6325919690768</v>
+        <v>-497.6695312355089</v>
       </c>
       <c r="B5" t="n">
-        <v>-63.58024161191372</v>
+        <v>-130.7359566011016</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>-497.9453826089914</v>
+        <v>-490.4437097763884</v>
       </c>
       <c r="B6" t="n">
-        <v>-62.30831611554842</v>
+        <v>-129.3775743078314</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>-491.5373837060852</v>
+        <v>-483.519487236723</v>
       </c>
       <c r="B7" t="n">
-        <v>-61.10233075697045</v>
+        <v>-128.0909315404491</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>-485.3703226699804</v>
+        <v>-476.8536330385321</v>
       </c>
       <c r="B8" t="n">
-        <v>-59.95359101849417</v>
+        <v>-126.8662322882623</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>-479.4130364397965</v>
+        <v>-470.4115693067754</v>
       </c>
       <c r="B9" t="n">
-        <v>-58.85503233016482</v>
+        <v>-125.6956432325519</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>-473.6399405825251</v>
+        <v>-464.1647309857984</v>
       </c>
       <c r="B10" t="n">
-        <v>-57.8008604671619</v>
+        <v>-124.5727154482027</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>-468.0297109811044</v>
+        <v>-458.0896893005369</v>
       </c>
       <c r="B11" t="n">
-        <v>-56.78625269271134</v>
+        <v>-123.4921565624293</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>-462.5643291283508</v>
+        <v>-452.1666990479677</v>
       </c>
       <c r="B12" t="n">
-        <v>-55.80714172154126</v>
+        <v>-122.449517227875</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>-457.2285154037512</v>
+        <v>-446.3791815785328</v>
       </c>
       <c r="B13" t="n">
-        <v>-54.86008088588216</v>
+        <v>-121.4410595633686</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>-452.0092703440052</v>
+        <v>-440.7130133102055</v>
       </c>
       <c r="B14" t="n">
-        <v>-53.94213598479536</v>
+        <v>-120.4636004582467</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>-446.8953358246121</v>
+        <v>-435.1560597553238</v>
       </c>
       <c r="B15" t="n">
-        <v>-53.05076931790103</v>
+        <v>-119.5144060571595</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>-441.8768777321214</v>
+        <v>-429.6977951466923</v>
       </c>
       <c r="B16" t="n">
-        <v>-52.18376811682123</v>
+        <v>-118.5911068847513</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>-436.9453939368614</v>
+        <v>-424.3291576058624</v>
       </c>
       <c r="B17" t="n">
-        <v>-51.33921521638123</v>
+        <v>-117.6916571457962</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>-432.0933676894334</v>
+        <v>-419.0421419781773</v>
       </c>
       <c r="B18" t="n">
-        <v>-50.51541825217501</v>
+        <v>-116.814253003349</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>-427.3142115045758</v>
+        <v>-413.8297501321646</v>
       </c>
       <c r="B19" t="n">
-        <v>-49.71089118185677</v>
+        <v>-115.9573139004335</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>-422.6020761075512</v>
+        <v>-408.6858258346837</v>
       </c>
       <c r="B20" t="n">
-        <v>-48.92431431137561</v>
+        <v>-115.1194461670412</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>-417.9517021691321</v>
+        <v>-403.60491935454</v>
       </c>
       <c r="B21" t="n">
-        <v>-48.15450336022042</v>
+        <v>-114.2994133560291</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>-413.3584819076781</v>
+        <v>-398.582125646505</v>
       </c>
       <c r="B22" t="n">
-        <v>-47.40041435001115</v>
+        <v>-113.4961039374684</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>-408.8182222556498</v>
+        <v>-393.6130985129179</v>
       </c>
       <c r="B23" t="n">
-        <v>-46.66109984067316</v>
+        <v>-112.7085284502895</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>-404.3271852041156</v>
+        <v>-388.6939265450874</v>
       </c>
       <c r="B24" t="n">
-        <v>-45.93571185251807</v>
+        <v>-111.9357951485061</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>-399.8819675891671</v>
+        <v>-383.8211509934159</v>
       </c>
       <c r="B25" t="n">
-        <v>-45.22347900573601</v>
+        <v>-111.1771088928086</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>-395.4794913427224</v>
+        <v>-378.991615374804</v>
       </c>
       <c r="B26" t="n">
-        <v>-44.5237022149731</v>
+        <v>-110.4317442075663</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>-391.1170326833328</v>
+        <v>-374.2024541243961</v>
       </c>
       <c r="B27" t="n">
-        <v>-43.83575668385765</v>
+        <v>-109.699040881846</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>-386.792040812207</v>
+        <v>-369.4510857619557</v>
       </c>
       <c r="B28" t="n">
-        <v>-43.15906098158891</v>
+        <v>-108.978400447639</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>-382.5022126315201</v>
+        <v>-364.7351672711807</v>
       </c>
       <c r="B29" t="n">
-        <v>-42.4930871297918</v>
+        <v>-108.2692770014045</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>-378.2454740878231</v>
+        <v>-360.0525787518747</v>
       </c>
       <c r="B30" t="n">
-        <v>-41.83735587894981</v>
+        <v>-107.5711729589335</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>-374.0198747040579</v>
+        <v>-355.4013687548629</v>
       </c>
       <c r="B31" t="n">
-        <v>-41.19141896556911</v>
+        <v>-106.8836292122111</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>-369.8236814102791</v>
+        <v>-350.7797713934168</v>
       </c>
       <c r="B32" t="n">
-        <v>-40.55487228065084</v>
+        <v>-106.2062262345769</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>-365.6552474384575</v>
+        <v>-346.1861812349439</v>
       </c>
       <c r="B33" t="n">
-        <v>-39.92733469322005</v>
+        <v>-105.5385789988852</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>-361.5131263808555</v>
+        <v>-341.6190985089272</v>
       </c>
       <c r="B34" t="n">
-        <v>-39.30846430620031</v>
+        <v>-104.8803278679281</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>-357.3959236108668</v>
+        <v>-337.0771389273808</v>
       </c>
       <c r="B35" t="n">
-        <v>-38.69793517214725</v>
+        <v>-104.2311391156539</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>-353.302406798825</v>
+        <v>-332.5590965328072</v>
       </c>
       <c r="B36" t="n">
-        <v>-38.09545302662323</v>
+        <v>-103.5907128930496</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>-349.2313744777741</v>
+        <v>-328.0637985111757</v>
       </c>
       <c r="B37" t="n">
-        <v>-37.5007350996564</v>
+        <v>-102.9587616608096</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>-345.1817624979938</v>
+        <v>-323.59018603644</v>
       </c>
       <c r="B38" t="n">
-        <v>-36.91352517634709</v>
+        <v>-102.3350210480257</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>-341.1526016800782</v>
+        <v>-319.1372833581339</v>
       </c>
       <c r="B39" t="n">
-        <v>-36.33358664817553</v>
+        <v>-101.7192447797828</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>-337.1429000155274</v>
+        <v>-314.7041904130595</v>
       </c>
       <c r="B40" t="n">
-        <v>-35.76068511767633</v>
+        <v>-101.1112030517775</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>-333.1518748938361</v>
+        <v>-310.2900846755779</v>
       </c>
       <c r="B41" t="n">
-        <v>-35.19462122013829</v>
+        <v>-100.5106822245669</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>-329.178685492363</v>
+        <v>-305.8941897670454</v>
       </c>
       <c r="B42" t="n">
-        <v>-34.63519189042739</v>
+        <v>-99.9174800548372</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>-325.2226107846294</v>
+        <v>-301.5157851993927</v>
       </c>
       <c r="B43" t="n">
-        <v>-34.08221536061336</v>
+        <v>-99.33140663081548</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>-321.282960754703</v>
+        <v>-297.1542238180378</v>
       </c>
       <c r="B44" t="n">
-        <v>-33.53551818675305</v>
+        <v>-98.75228627344262</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>-317.3590819130402</v>
+        <v>-292.8088975443238</v>
       </c>
       <c r="B45" t="n">
-        <v>-32.99493577115183</v>
+        <v>-98.1799525559594</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>-313.4503846987536</v>
+        <v>-288.4792522604041</v>
       </c>
       <c r="B46" t="n">
-        <v>-32.46031584076619</v>
+        <v>-97.6142499482811</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>-309.5563137631563</v>
+        <v>-284.1647376320111</v>
       </c>
       <c r="B47" t="n">
-        <v>-31.93151404318573</v>
+        <v>-97.05502697734732</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>-305.6763474367812</v>
+        <v>-279.8648883302142</v>
       </c>
       <c r="B48" t="n">
-        <v>-31.40839364585861</v>
+        <v>-96.50214653495425</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>-301.8099967626152</v>
+        <v>-275.5792467753352</v>
       </c>
       <c r="B49" t="n">
-        <v>-30.89082518634322</v>
+        <v>-95.95547555699881</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>-297.9568022705811</v>
+        <v>-271.307377868439</v>
       </c>
       <c r="B50" t="n">
-        <v>-30.37868583449509</v>
+        <v>-95.41488677834934</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>-294.1163579367847</v>
+        <v>-267.0489327715972</v>
       </c>
       <c r="B51" t="n">
-        <v>-29.87186235294081</v>
+        <v>-94.88026653511247</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>-290.2882757308508</v>
+        <v>-262.8035082448545</v>
       </c>
       <c r="B52" t="n">
-        <v>-29.37024617110151</v>
+        <v>-94.35149683050128</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>-286.4721385391127</v>
+        <v>-258.5707986539107</v>
       </c>
       <c r="B53" t="n">
-        <v>-28.87372715573835</v>
+        <v>-93.82847426142882</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>-282.6676469639272</v>
+        <v>-254.3504605575581</v>
       </c>
       <c r="B54" t="n">
-        <v>-28.3822126013618</v>
+        <v>-93.31109295762155</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>-278.8744480580962</v>
+        <v>-250.1422440212216</v>
       </c>
       <c r="B55" t="n">
-        <v>-27.89560476177516</v>
+        <v>-92.79926062871738</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>-275.0922487588722</v>
+        <v>-245.9458491700985</v>
       </c>
       <c r="B56" t="n">
-        <v>-27.413815456583</v>
+        <v>-92.29288083216352</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>-271.3207734519904</v>
+        <v>-241.7610387894444</v>
       </c>
       <c r="B57" t="n">
-        <v>-26.93676041990645</v>
+        <v>-91.79186660014426</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>-267.5597477125488</v>
+        <v>-237.5875773446703</v>
       </c>
       <c r="B58" t="n">
-        <v>-26.46435715746784</v>
+        <v>-91.29613289169913</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>-263.8089136358803</v>
+        <v>-233.4252626015173</v>
       </c>
       <c r="B59" t="n">
-        <v>-25.996526817731</v>
+        <v>-90.80560026277283</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>-260.068056045402</v>
+        <v>-229.2738656995529</v>
       </c>
       <c r="B60" t="n">
-        <v>-25.53319732638013</v>
+        <v>-90.32018770039809</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>-256.3369300533951</v>
+        <v>-225.1332235346473</v>
       </c>
       <c r="B61" t="n">
-        <v>-25.07429429732184</v>
+        <v>-89.83982338954712</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>-252.6153583686963</v>
+        <v>-221.0031531228296</v>
       </c>
       <c r="B62" t="n">
-        <v>-24.619752979335</v>
+        <v>-89.36443456613006</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>-248.9031241235086</v>
+        <v>-216.8835002765274</v>
       </c>
       <c r="B63" t="n">
-        <v>-24.16950499156968</v>
+        <v>-88.89395311755931</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>-245.2000397135344</v>
+        <v>-212.7741075294816</v>
       </c>
       <c r="B64" t="n">
-        <v>-23.72348673210701</v>
+        <v>-88.42831180776778</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>-241.5059813184401</v>
+        <v>-208.6748521685518</v>
       </c>
       <c r="B65" t="n">
-        <v>-23.28164334834742</v>
+        <v>-87.96744852657298</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>-237.8207495254361</v>
+        <v>-204.5855901556943</v>
       </c>
       <c r="B66" t="n">
-        <v>-22.84391195586778</v>
+        <v>-87.51129988295048</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>-234.1442161153508</v>
+        <v>-200.5062115803705</v>
       </c>
       <c r="B67" t="n">
-        <v>-22.41023918690888</v>
+        <v>-87.05980738987483</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>-230.4762184477781</v>
+        <v>-196.4366230382012</v>
       </c>
       <c r="B68" t="n">
-        <v>-21.98056855178038</v>
+        <v>-86.61291536798615</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>-226.8166544019241</v>
+        <v>-192.3766932557823</v>
       </c>
       <c r="B69" t="n">
-        <v>-21.55485156857603</v>
+        <v>-86.17056495463595</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>-223.1653804576484</v>
+        <v>-188.3263458245067</v>
       </c>
       <c r="B70" t="n">
-        <v>-21.1330357700059</v>
+        <v>-85.73270423229684</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>-219.5223020518176</v>
+        <v>-184.2854964281499</v>
       </c>
       <c r="B71" t="n">
-        <v>-20.71507518515483</v>
+        <v>-85.29928127142659</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>-215.8872912405044</v>
+        <v>-180.2540602743238</v>
       </c>
       <c r="B72" t="n">
-        <v>-20.30092078201736</v>
+        <v>-84.87024493535699</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>-212.2602682445893</v>
+        <v>-176.2319745801206</v>
       </c>
       <c r="B73" t="n">
-        <v>-19.89052978069961</v>
+        <v>-84.44554723119194</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>-208.6411268930114</v>
+        <v>-172.2191678106266</v>
       </c>
       <c r="B74" t="n">
-        <v>-19.48385710316524</v>
+        <v>-84.02513999346451</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>-205.0297759199447</v>
+        <v>-168.2155742902441</v>
       </c>
       <c r="B75" t="n">
-        <v>-19.08086005651623</v>
+        <v>-83.60897641862215</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>-201.4261468742722</v>
+        <v>-164.2211343614961</v>
       </c>
       <c r="B76" t="n">
-        <v>-18.68149913691275</v>
+        <v>-83.1970110433121</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>-197.830159747274</v>
+        <v>-160.2358228721107</v>
       </c>
       <c r="B77" t="n">
-        <v>-18.28573416144494</v>
+        <v>-82.78920261012547</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>-194.2417326365624</v>
+        <v>-156.2595681404271</v>
       </c>
       <c r="B78" t="n">
-        <v>-17.89352535448347</v>
+        <v>-82.38550572202791</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>-190.6608277297893</v>
+        <v>-152.2923325787009</v>
       </c>
       <c r="B79" t="n">
-        <v>-17.50483831841026</v>
+        <v>-81.98587910536185</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>-187.0873422530425</v>
+        <v>-148.3340831733899</v>
       </c>
       <c r="B80" t="n">
-        <v>-17.11963214419399</v>
+        <v>-81.59028252393102</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>-183.5212474452465</v>
+        <v>-144.3847905912356</v>
       </c>
       <c r="B81" t="n">
-        <v>-16.73787447026493</v>
+        <v>-81.19867666189498</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>-179.9624879524983</v>
+        <v>-140.4444152620005</v>
       </c>
       <c r="B82" t="n">
-        <v>-16.35953054039172</v>
+        <v>-80.81102173524374</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>-176.4110124577</v>
+        <v>-136.5129286429888</v>
       </c>
       <c r="B83" t="n">
-        <v>-15.98456651646404</v>
+        <v>-80.42727958857211</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>-172.8667662351851</v>
+        <v>-132.590319404459</v>
       </c>
       <c r="B84" t="n">
-        <v>-15.61294867758838</v>
+        <v>-80.04741423917937</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>-169.3297204934769</v>
+        <v>-128.6765515926647</v>
       </c>
       <c r="B85" t="n">
-        <v>-15.24464646924147</v>
+        <v>-79.67138779842224</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>-165.7998275441826</v>
+        <v>-124.7716131520739</v>
       </c>
       <c r="B86" t="n">
-        <v>-14.87962778253035</v>
+        <v>-79.2991651630374</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>-162.2770578095606</v>
+        <v>-120.8754809337464</v>
       </c>
       <c r="B87" t="n">
-        <v>-14.51786280215288</v>
+        <v>-78.93071062006538</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>-158.7613700637016</v>
+        <v>-116.9881623689562</v>
       </c>
       <c r="B88" t="n">
-        <v>-14.15932091059528</v>
+        <v>-78.56599177446441</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>-155.2527407245204</v>
+        <v>-113.1096326868819</v>
       </c>
       <c r="B89" t="n">
-        <v>-13.80397367904803</v>
+        <v>-78.20497360696658</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>-151.751134404164</v>
+        <v>-109.2398562660606</v>
       </c>
       <c r="B90" t="n">
-        <v>-13.45179184731609</v>
+        <v>-77.84762054936522</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>-148.2565327867427</v>
+        <v>-105.3788742642046</v>
       </c>
       <c r="B91" t="n">
-        <v>-13.10274823324247</v>
+        <v>-77.49390451198457</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>-144.7689128347823</v>
+        <v>-101.5266484285992</v>
       </c>
       <c r="B92" t="n">
-        <v>-12.75681551338542</v>
+        <v>-77.14379045811313</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>-141.2882397207078</v>
+        <v>-97.68317063212868</v>
       </c>
       <c r="B93" t="n">
-        <v>-12.41396553995199</v>
+        <v>-76.79724652189589</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>-137.8145162598768</v>
+        <v>-93.84845311386508</v>
       </c>
       <c r="B94" t="n">
-        <v>-12.07417419404146</v>
+        <v>-76.45424302287046</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>-134.3477119870239</v>
+        <v>-90.02249724960579</v>
       </c>
       <c r="B95" t="n">
-        <v>-11.73741438689427</v>
+        <v>-76.11474962687703</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>-130.8878197807778</v>
+        <v>-86.20528696300387</v>
       </c>
       <c r="B96" t="n">
-        <v>-11.40366161080379</v>
+        <v>-75.77873480108525</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>-127.4348059980117</v>
+        <v>-82.39682553733758</v>
       </c>
       <c r="B97" t="n">
-        <v>-11.07288909545045</v>
+        <v>-75.44616907079273</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>-123.9886810944142</v>
+        <v>-78.59712643397535</v>
       </c>
       <c r="B98" t="n">
-        <v>-10.74507458597327</v>
+        <v>-75.11702415320013</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>-120.5494223749855</v>
+        <v>-74.80618365244169</v>
       </c>
       <c r="B99" t="n">
-        <v>-10.42019292013924</v>
+        <v>-74.79127037985756</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>-117.1170224657908</v>
+        <v>-71.02399212902263</v>
       </c>
       <c r="B100" t="n">
-        <v>-10.09822066457752</v>
+        <v>-74.46887849029662</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>-113.6914826064419</v>
+        <v>-67.25057481634373</v>
       </c>
       <c r="B101" t="n">
-        <v>-9.779135437344451</v>
+        <v>-74.14982190347621</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>-110.2727844082305</v>
+        <v>-63.48592966546635</v>
       </c>
       <c r="B102" t="n">
-        <v>-9.462913272701201</v>
+        <v>-73.83407218827801</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>-106.860918398118</v>
+        <v>-59.73004876851147</v>
       </c>
       <c r="B103" t="n">
-        <v>-9.149531293320962</v>
+        <v>-73.52160072971151</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>-103.455883073995</v>
+        <v>-55.98295742147389</v>
       </c>
       <c r="B104" t="n">
-        <v>-8.838967591453354</v>
+        <v>-73.21238195378299</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>-100.0576914383155</v>
+        <v>-52.24465698057159</v>
       </c>
       <c r="B105" t="n">
-        <v>-8.531201789207216</v>
+        <v>-72.90638855307256</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>-96.66631692131345</v>
+        <v>-48.51515468355156</v>
       </c>
       <c r="B106" t="n">
-        <v>-8.226210142909906</v>
+        <v>-72.60359397345024</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>-93.28177533333127</v>
+        <v>-44.79444713873886</v>
       </c>
       <c r="B107" t="n">
-        <v>-7.923972957341846</v>
+        <v>-72.30397106578084</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>-89.90405564744998</v>
+        <v>-41.08254950518663</v>
       </c>
       <c r="B108" t="n">
-        <v>-7.624468332692857</v>
+        <v>-72.00749443742626</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>-86.53316169151022</v>
+        <v>-37.37947851451929</v>
       </c>
       <c r="B109" t="n">
-        <v>-7.327675903267647</v>
+        <v>-71.71413904768957</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>-83.16909183546635</v>
+        <v>-33.68523164695711</v>
       </c>
       <c r="B110" t="n">
-        <v>-7.033575018293703</v>
+        <v>-71.42387856940246</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>-79.81185794946877</v>
+        <v>-29.99982154829378</v>
       </c>
       <c r="B111" t="n">
-        <v>-6.742146395534718</v>
+        <v>-71.13668811797703</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>-76.4614400727144</v>
+        <v>-26.32325202260466</v>
       </c>
       <c r="B112" t="n">
-        <v>-6.45336818346928</v>
+        <v>-70.85254235081084</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>-73.11785249175017</v>
+        <v>-22.65554236584893</v>
       </c>
       <c r="B113" t="n">
-        <v>-6.167221690529033</v>
+        <v>-70.57141734905457</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>-69.78109601086103</v>
+        <v>-18.99669831886315</v>
       </c>
       <c r="B114" t="n">
-        <v>-5.883687236392262</v>
+        <v>-70.29328836588616</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>-66.451179550634</v>
+        <v>-15.34672728348341</v>
       </c>
       <c r="B115" t="n">
-        <v>-5.602746005900315</v>
+        <v>-70.01813100805452</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>-63.12809201459923</v>
+        <v>-11.70562454130144</v>
       </c>
       <c r="B116" t="n">
-        <v>-5.324377673646069</v>
+        <v>-69.74592020097663</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>-59.8118571627229</v>
+        <v>-8.07342617775663</v>
       </c>
       <c r="B117" t="n">
-        <v>-5.048565008608506</v>
+        <v>-69.47663413005733</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>-56.50247811570387</v>
+        <v>-4.450118209396394</v>
       </c>
       <c r="B118" t="n">
-        <v>-4.775289201558564</v>
+        <v>-69.21024745798175</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>-53.19993346155022</v>
+        <v>-0.8357189895657343</v>
       </c>
       <c r="B119" t="n">
-        <v>-4.504529605897602</v>
+        <v>-68.94673745836687</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>-49.90425500315826</v>
+        <v>2.769762716658371</v>
       </c>
       <c r="B120" t="n">
-        <v>-4.236270112682519</v>
+        <v>-68.68608089495001</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>-46.61543385526067</v>
+        <v>6.366312504331359</v>
       </c>
       <c r="B121" t="n">
-        <v>-3.97049143101674</v>
+        <v>-68.42825513480585</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>-43.33348953816236</v>
+        <v>9.953939781061861</v>
       </c>
       <c r="B122" t="n">
-        <v>-3.707176727939952</v>
+        <v>-68.17323604351876</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>-40.0584092112795</v>
+        <v>13.53261754578894</v>
       </c>
       <c r="B123" t="n">
-        <v>-3.446306721023035</v>
+        <v>-67.92100228011722</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>-36.79021151449422</v>
+        <v>17.1023426462251</v>
       </c>
       <c r="B124" t="n">
-        <v>-3.187864799480366</v>
+        <v>-67.67153099187945</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>-33.5288914030892</v>
+        <v>20.66311867981199</v>
       </c>
       <c r="B125" t="n">
-        <v>-2.931832616523167</v>
+        <v>-67.42479906237443</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>-30.27446921877959</v>
+        <v>24.21491340550435</v>
       </c>
       <c r="B126" t="n">
-        <v>-2.678193965301972</v>
+        <v>-67.1807860416063</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>-27.02693309112121</v>
+        <v>27.75774625205991</v>
       </c>
       <c r="B127" t="n">
-        <v>-2.426930264604977</v>
+        <v>-66.93946810294165</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>-23.78632159582706</v>
+        <v>31.29159635475273</v>
       </c>
       <c r="B128" t="n">
-        <v>-2.178026973235745</v>
+        <v>-66.70082437510368</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>-20.55259485260009</v>
+        <v>34.81646031554298</v>
       </c>
       <c r="B129" t="n">
-        <v>-1.931463654073696</v>
+        <v>-66.46483297161171</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>-17.32579688275771</v>
+        <v>38.33233471830792</v>
       </c>
       <c r="B130" t="n">
-        <v>-1.687226434824709</v>
+        <v>-66.23147219430817</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>-14.10591875353204</v>
+        <v>41.83920590335902</v>
       </c>
       <c r="B131" t="n">
-        <v>-1.445297527841888</v>
+        <v>-66.00072120048122</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>-10.89295691110271</v>
+        <v>45.33705779284956</v>
       </c>
       <c r="B132" t="n">
-        <v>-1.205659709629685</v>
+        <v>-65.77255946282955</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>-7.686938608847767</v>
+        <v>48.82591623754001</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.9682981794842078</v>
+        <v>-65.5469639053311</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>-4.487860530534255</v>
+        <v>52.30574905703181</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.7331959796291017</v>
+        <v>-65.32391539809842</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>-1.295721020492082</v>
+        <v>55.77656017120994</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.5003364191652793</v>
+        <v>-65.10339263715176</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>1.889460848452401</v>
+        <v>59.23834981365539</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.2697044431055815</v>
+        <v>-64.88537473793042</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>5.067691254558975</v>
+        <v>62.69111109053358</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.04128328263030312</v>
+        <v>-64.66984143631845</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>8.238955048489665</v>
+        <v>66.13482957131897</v>
       </c>
       <c r="B138" t="n">
-        <v>0.1849421686095241</v>
+        <v>-64.45677309177995</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>11.4032433170553</v>
+        <v>69.56951265716113</v>
       </c>
       <c r="B139" t="n">
-        <v>0.4089873573724958</v>
+        <v>-64.24614887162275</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>14.56055790057622</v>
+        <v>72.99515895103825</v>
       </c>
       <c r="B140" t="n">
-        <v>0.630868372019961</v>
+        <v>-64.03794866175008</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>17.71089435779293</v>
+        <v>76.41175457463098</v>
       </c>
       <c r="B141" t="n">
-        <v>0.8506007320965239</v>
+        <v>-63.83215326116979</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>20.85424285956482</v>
+        <v>79.81931310771786</v>
       </c>
       <c r="B142" t="n">
-        <v>1.068199468143234</v>
+        <v>-63.62874197277361</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>23.99060578892434</v>
+        <v>83.21782683681785</v>
       </c>
       <c r="B143" t="n">
-        <v>1.283680341897082</v>
+        <v>-63.42769554599627</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>27.11997331710234</v>
+        <v>86.60728356303333</v>
       </c>
       <c r="B144" t="n">
-        <v>1.497058157063748</v>
+        <v>-63.22899513669108</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>30.24232962316886</v>
+        <v>89.98769042586201</v>
       </c>
       <c r="B145" t="n">
-        <v>1.708347211708627</v>
+        <v>-63.03262091568556</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>33.35769273792462</v>
+        <v>93.35904833891881</v>
       </c>
       <c r="B146" t="n">
-        <v>1.917563980519787</v>
+        <v>-62.83855358283444</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>36.46603124802262</v>
+        <v>96.72136359683891</v>
       </c>
       <c r="B147" t="n">
-        <v>2.124721499636394</v>
+        <v>-62.64677368946715</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>39.56736311729954</v>
+        <v>100.0746202566375</v>
       </c>
       <c r="B148" t="n">
-        <v>2.329836004731135</v>
+        <v>-62.45726320407041</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>42.66167264274299</v>
+        <v>103.41882828308</v>
       </c>
       <c r="B149" t="n">
-        <v>2.532921377795645</v>
+        <v>-62.27000276905795</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>45.74896226140002</v>
+        <v>106.7539851865174</v>
       </c>
       <c r="B150" t="n">
-        <v>2.73399259468502</v>
+        <v>-62.08497388448231</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>48.82922755413867</v>
+        <v>110.0800955114746</v>
       </c>
       <c r="B151" t="n">
-        <v>2.933064071664091</v>
+        <v>-61.9021578077602</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>51.90244810235477</v>
+        <v>113.3971651383373</v>
       </c>
       <c r="B152" t="n">
-        <v>3.130149099846761</v>
+        <v>-61.7215358786776</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>54.9686467131745</v>
+        <v>116.7051876666182</v>
       </c>
       <c r="B153" t="n">
-        <v>3.325263640151888</v>
+        <v>-61.54309025192728</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>58.02780902525124</v>
+        <v>120.0041683531092</v>
       </c>
       <c r="B154" t="n">
-        <v>3.518421161449027</v>
+        <v>-61.36680259103255</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>61.0799209484712</v>
+        <v>123.2941114858851</v>
       </c>
       <c r="B155" t="n">
-        <v>3.709635069897587</v>
+        <v>-61.19265476122584</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>64.12499928492365</v>
+        <v>126.575022716603</v>
       </c>
       <c r="B156" t="n">
-        <v>3.898920605244001</v>
+        <v>-61.02062870348203</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>67.16303598916512</v>
+        <v>129.8469091258095</v>
       </c>
       <c r="B157" t="n">
-        <v>4.086291342640692</v>
+        <v>-60.85070643275102</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>70.19401540465216</v>
+        <v>133.1097543806404</v>
       </c>
       <c r="B158" t="n">
-        <v>4.271760304844491</v>
+        <v>-60.68287131141375</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>73.21794654471745</v>
+        <v>136.3635849830571</v>
       </c>
       <c r="B159" t="n">
-        <v>4.455341933577472</v>
+        <v>-60.51710463117632</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>76.2348306044349</v>
+        <v>139.6083975343417</v>
       </c>
       <c r="B160" t="n">
-        <v>4.637050082420217</v>
+        <v>-60.35338936876278</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>79.24465813941407</v>
+        <v>142.8442032680289</v>
       </c>
       <c r="B161" t="n">
-        <v>4.816897868921274</v>
+        <v>-60.1917078966037</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>82.24743153704677</v>
+        <v>146.0710036977924</v>
       </c>
       <c r="B162" t="n">
-        <v>4.99489902775295</v>
+        <v>-60.03204321591167</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>85.24315430701127</v>
+        <v>149.288804921723</v>
       </c>
       <c r="B163" t="n">
-        <v>5.171067256521553</v>
+        <v>-59.87437823406836</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>88.23181637895682</v>
+        <v>152.4976089934281</v>
       </c>
       <c r="B164" t="n">
-        <v>5.345415360099963</v>
+        <v>-59.71869619070401</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>91.21341574947361</v>
+        <v>155.6974348580706</v>
       </c>
       <c r="B165" t="n">
-        <v>5.51795653115397</v>
+        <v>-59.56497964572006</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>94.18797049485327</v>
+        <v>158.8882782569133</v>
       </c>
       <c r="B166" t="n">
-        <v>5.688705019068095</v>
+        <v>-59.41321241547794</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>97.15545677740596</v>
+        <v>162.0701517575397</v>
       </c>
       <c r="B167" t="n">
-        <v>5.857672568999163</v>
+        <v>-59.26337764061842</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>100.1158975006854</v>
+        <v>165.2430597819362</v>
       </c>
       <c r="B168" t="n">
-        <v>6.024873506485392</v>
+        <v>-59.11545898264148</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>103.0692771782141</v>
+        <v>168.4070181804084</v>
       </c>
       <c r="B169" t="n">
-        <v>6.190319881432856</v>
+        <v>-58.96943970447379</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>106.0156016299314</v>
+        <v>171.5620277490829</v>
       </c>
       <c r="B170" t="n">
-        <v>6.354024860414142</v>
+        <v>-58.8253038993258</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>108.9548685740357</v>
+        <v>174.7081088190414</v>
       </c>
       <c r="B171" t="n">
-        <v>6.516001065067513</v>
+        <v>-58.68303489807246</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>111.8870770446752</v>
+        <v>177.8452532287777</v>
       </c>
       <c r="B172" t="n">
-        <v>6.676261104105095</v>
+        <v>-58.54261745158752</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>114.8122444711455</v>
+        <v>180.9734979694812</v>
       </c>
       <c r="B173" t="n">
-        <v>6.834818493216318</v>
+        <v>-58.40403441814084</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>117.7303553435704</v>
+        <v>184.092829915927</v>
       </c>
       <c r="B174" t="n">
-        <v>6.991684866803553</v>
+        <v>-58.26727102051296</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>120.6414171005184</v>
+        <v>187.2032581956259</v>
       </c>
       <c r="B175" t="n">
-        <v>7.14687301954342</v>
+        <v>-58.1323116067224</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>123.5454383735789</v>
+        <v>190.3048094032442</v>
       </c>
       <c r="B176" t="n">
-        <v>7.300395710840633</v>
+        <v>-57.99913990375723</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>126.4424076531209</v>
+        <v>193.3974914076961</v>
       </c>
       <c r="B177" t="n">
-        <v>7.452264549550847</v>
+        <v>-57.86774058504767</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>129.3323395273779</v>
+        <v>196.4812980287645</v>
       </c>
       <c r="B178" t="n">
-        <v>7.602492432780053</v>
+        <v>-57.73809903138473</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>132.2152329474625</v>
+        <v>199.5562631157374</v>
       </c>
       <c r="B179" t="n">
-        <v>7.751091347375393</v>
+        <v>-57.61019906110411</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>135.0910902312799</v>
+        <v>202.6223937606995</v>
       </c>
       <c r="B180" t="n">
-        <v>7.898073372238457</v>
+        <v>-57.48402575120986</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>137.9599131063858</v>
+        <v>205.6796977640337</v>
       </c>
       <c r="B181" t="n">
-        <v>8.043450472189932</v>
+        <v>-57.35956426464449</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>140.8217141338421</v>
+        <v>208.7281909552389</v>
       </c>
       <c r="B182" t="n">
-        <v>8.187235071624315</v>
+        <v>-57.23679955744132</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>143.6764829578034</v>
+        <v>211.7678863782653</v>
       </c>
       <c r="B183" t="n">
-        <v>8.329438358162434</v>
+        <v>-57.11571682346761</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>146.5242292960098</v>
+        <v>214.7987941134046</v>
       </c>
       <c r="B184" t="n">
-        <v>8.470072446531873</v>
+        <v>-56.9963014940295</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>149.3649684984404</v>
+        <v>217.8209314065897</v>
       </c>
       <c r="B185" t="n">
-        <v>8.609149632521024</v>
+        <v>-56.87853883770293</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>152.1986937871062</v>
+        <v>220.83430734909</v>
       </c>
       <c r="B186" t="n">
-        <v>8.746681040589294</v>
+        <v>-56.76241456164271</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>155.0254067233517</v>
+        <v>223.8389462470792</v>
       </c>
       <c r="B187" t="n">
-        <v>8.882678130959846</v>
+        <v>-56.64791390728155</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>157.8451315015031</v>
+        <v>226.8348545857262</v>
       </c>
       <c r="B188" t="n">
-        <v>9.017153361428001</v>
+        <v>-56.5350229193902</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>160.6578450022434</v>
+        <v>229.8220425207397</v>
       </c>
       <c r="B189" t="n">
-        <v>9.150116848929315</v>
+        <v>-56.42372761078545</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>163.4635800283524</v>
+        <v>232.8005381662487</v>
       </c>
       <c r="B190" t="n">
-        <v>9.281581284798449</v>
+        <v>-56.31401344573942</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>166.2623180993677</v>
+        <v>235.7703432261726</v>
       </c>
       <c r="B191" t="n">
-        <v>9.411556862798221</v>
+        <v>-56.20586698292959</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>169.0540809666216</v>
+        <v>238.7314948866284</v>
       </c>
       <c r="B192" t="n">
-        <v>9.54005557947599</v>
+        <v>-56.09927360387979</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>171.8388767572892</v>
+        <v>241.6839815928314</v>
       </c>
       <c r="B193" t="n">
-        <v>9.667088706308107</v>
+        <v>-55.99422056500271</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>174.6166945419903</v>
+        <v>244.6278389665973</v>
       </c>
       <c r="B194" t="n">
-        <v>9.792666574121483</v>
+        <v>-55.89069354201905</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>177.3875618351377</v>
+        <v>247.5630730307649</v>
       </c>
       <c r="B195" t="n">
-        <v>9.916801176972427</v>
+        <v>-55.78867937890499</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>180.1514721694167</v>
+        <v>250.4897093482355</v>
       </c>
       <c r="B196" t="n">
-        <v>10.0395028941789</v>
+        <v>-55.68816434821025</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>182.9084315445101</v>
+        <v>253.4077597974695</v>
       </c>
       <c r="B197" t="n">
-        <v>10.16078259387018</v>
+        <v>-55.58913531070544</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>185.6584649147555</v>
+        <v>256.3172363504748</v>
       </c>
       <c r="B198" t="n">
-        <v>10.28065188998249</v>
+        <v>-55.49157922719013</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>188.4015596257859</v>
+        <v>259.2181597575459</v>
       </c>
       <c r="B199" t="n">
-        <v>10.39912067356983</v>
+        <v>-55.39548287175148</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>191.1377314499772</v>
+        <v>262.1105577147027</v>
       </c>
       <c r="B200" t="n">
-        <v>10.5162000011311</v>
+        <v>-55.30083290800883</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>193.8669829260685</v>
+        <v>264.9944291445306</v>
       </c>
       <c r="B201" t="n">
-        <v>10.63190028086802</v>
+        <v>-55.20761704928367</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>196.5893314536397</v>
+        <v>267.8698138396004</v>
       </c>
       <c r="B202" t="n">
-        <v>10.74623247400245</v>
+        <v>-55.1158217906509</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>199.3047731069066</v>
+        <v>270.7367028399291</v>
       </c>
       <c r="B203" t="n">
-        <v>10.85920656783978</v>
+        <v>-55.02543529700239</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>202.0133279546432</v>
+        <v>273.595141038627</v>
       </c>
       <c r="B204" t="n">
-        <v>10.97083347721178</v>
+        <v>-54.93644413137386</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>204.715000568661</v>
+        <v>276.4451316152224</v>
       </c>
       <c r="B205" t="n">
-        <v>11.08112339382478</v>
+        <v>-54.84883627897878</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>207.4097981506017</v>
+        <v>279.286706178981</v>
       </c>
       <c r="B206" t="n">
-        <v>11.19008654661084</v>
+        <v>-54.76259894924397</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>210.0977227508206</v>
+        <v>282.1198666995151</v>
       </c>
       <c r="B207" t="n">
-        <v>11.29773288716149</v>
+        <v>-54.67772035874131</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>212.778809144213</v>
+        <v>284.9446368355547</v>
       </c>
       <c r="B208" t="n">
-        <v>11.40407359528675</v>
+        <v>-54.59418816471305</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>215.4530337920561</v>
+        <v>287.7610353865841</v>
       </c>
       <c r="B209" t="n">
-        <v>11.50911745842907</v>
+        <v>-54.51199027586091</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>218.1204278745524</v>
+        <v>290.5690926732387</v>
       </c>
       <c r="B210" t="n">
-        <v>11.61287535905572</v>
+        <v>-54.43111437334335</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>220.7809961603052</v>
+        <v>293.3688211381767</v>
       </c>
       <c r="B211" t="n">
-        <v>11.71535706140469</v>
+        <v>-54.35154876168639</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>223.4347440219834</v>
+        <v>296.160238322634</v>
       </c>
       <c r="B212" t="n">
-        <v>11.81657228763541</v>
+        <v>-54.27328169383424</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>226.0816784244867</v>
+        <v>298.9433634841329</v>
       </c>
       <c r="B213" t="n">
-        <v>11.91653075439825</v>
+        <v>-54.19630147288279</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>228.7218232581615</v>
+        <v>301.7182208360513</v>
       </c>
       <c r="B214" t="n">
-        <v>12.01524274085466</v>
+        <v>-54.1205963666406</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>231.3551779530178</v>
+        <v>304.4848282802054</v>
       </c>
       <c r="B215" t="n">
-        <v>12.11271753353185</v>
+        <v>-54.04615491706298</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>233.9817564837888</v>
+        <v>307.2432053941648</v>
       </c>
       <c r="B216" t="n">
-        <v>12.20896489460671</v>
+        <v>-53.97296571705999</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>236.6015710411354</v>
+        <v>309.993371862533</v>
       </c>
       <c r="B217" t="n">
-        <v>12.30399444620969</v>
+        <v>-53.90101745349085</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>239.2146282699322</v>
+        <v>312.7353552484889</v>
       </c>
       <c r="B218" t="n">
-        <v>12.39781554001314</v>
+        <v>-53.83029870747879</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>241.8209442027032</v>
+        <v>315.4691598588997</v>
       </c>
       <c r="B219" t="n">
-        <v>12.49043779599566</v>
+        <v>-53.7607987538286</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>244.4205261601406</v>
+        <v>318.1948247902794</v>
       </c>
       <c r="B220" t="n">
-        <v>12.58187045257156</v>
+        <v>-53.69250607371418</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>247.0133846036775</v>
+        <v>320.9123631825206</v>
       </c>
       <c r="B221" t="n">
-        <v>12.67212279351139</v>
+        <v>-53.62540990625195</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>249.5995340475916</v>
+        <v>323.6217896786177</v>
       </c>
       <c r="B222" t="n">
-        <v>12.76120417405735</v>
+        <v>-53.55949953723115</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>252.1789856658358</v>
+        <v>326.3231347291228</v>
       </c>
       <c r="B223" t="n">
-        <v>12.84912376354606</v>
+        <v>-53.49476396089509</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>254.751750435084</v>
+        <v>329.0164142764788</v>
       </c>
       <c r="B224" t="n">
-        <v>12.93589065747238</v>
+        <v>-53.43119261774422</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>257.31783787316</v>
+        <v>331.7016566490859</v>
       </c>
       <c r="B225" t="n">
-        <v>13.02151383655158</v>
+        <v>-53.36877474724548</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>259.8772678452064</v>
+        <v>334.3788701931097</v>
       </c>
       <c r="B226" t="n">
-        <v>13.10600255751399</v>
+        <v>-53.30750014422955</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>262.4300365025316</v>
+        <v>337.048085807733</v>
       </c>
       <c r="B227" t="n">
-        <v>13.18936522905597</v>
+        <v>-53.24735817165694</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>264.9761773755811</v>
+        <v>339.7093286979891</v>
       </c>
       <c r="B228" t="n">
-        <v>13.27161141702265</v>
+        <v>-53.18833842132975</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>267.5156851681735</v>
+        <v>342.3626103062962</v>
       </c>
       <c r="B229" t="n">
-        <v>13.35274935766967</v>
+        <v>-53.13043087760366</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>270.0485850437698</v>
+        <v>345.0079578790942</v>
       </c>
       <c r="B230" t="n">
-        <v>13.43278820375767</v>
+        <v>-53.07362526270612</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>272.5748670883901</v>
+        <v>347.6453917515807</v>
       </c>
       <c r="B231" t="n">
-        <v>13.51173593513255</v>
+        <v>-53.0179115395548</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>275.0945782388926</v>
+        <v>350.2749360084015</v>
       </c>
       <c r="B232" t="n">
-        <v>13.58960224521476</v>
+        <v>-52.96327967926169</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>277.6076988376453</v>
+        <v>352.8966062999502</v>
       </c>
       <c r="B233" t="n">
-        <v>13.66639469225083</v>
+        <v>-52.90971991367479</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>280.1142641989478</v>
+        <v>355.5104239414503</v>
       </c>
       <c r="B234" t="n">
-        <v>13.74212246675</v>
+        <v>-52.85722243932076</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>282.6142782016396</v>
+        <v>358.1164279476485</v>
       </c>
       <c r="B235" t="n">
-        <v>13.81679373131595</v>
+        <v>-52.80577719094262</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>285.1077595589808</v>
+        <v>360.7146168552644</v>
       </c>
       <c r="B236" t="n">
-        <v>13.89041703342437</v>
+        <v>-52.75537498963342</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>287.5947108878601</v>
+        <v>363.3050267142326</v>
       </c>
       <c r="B237" t="n">
-        <v>13.96300038312526</v>
+        <v>-52.70600599993068</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>290.0751543747328</v>
+        <v>365.8876793019874</v>
       </c>
       <c r="B238" t="n">
-        <v>14.03455230368684</v>
+        <v>-52.6576607535373</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>292.5490958514175</v>
+        <v>368.4625952101597</v>
       </c>
       <c r="B239" t="n">
-        <v>14.10508078087963</v>
+        <v>-52.61032988600459</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>295.0165545002923</v>
+        <v>371.029796372547</v>
       </c>
       <c r="B240" t="n">
-        <v>14.17459412293886</v>
+        <v>-52.56400408884338</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>297.4775445115875</v>
+        <v>373.5892997881552</v>
       </c>
       <c r="B241" t="n">
-        <v>14.24310043110347</v>
+        <v>-52.51867422120529</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>299.932077016485</v>
+        <v>376.141128153533</v>
       </c>
       <c r="B242" t="n">
-        <v>14.31060766135317</v>
+        <v>-52.47433111799171</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>302.3801727325356</v>
+        <v>378.6853121071446</v>
       </c>
       <c r="B243" t="n">
-        <v>14.37712397147439</v>
+        <v>-52.43096556079391</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>304.8218332542154</v>
+        <v>381.2218741891131</v>
       </c>
       <c r="B244" t="n">
-        <v>14.4426569398739</v>
+        <v>-52.3885685557637</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>307.2570781340167</v>
+        <v>383.7508263434768</v>
       </c>
       <c r="B245" t="n">
-        <v>14.50721457453685</v>
+        <v>-52.34713136003609</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>309.6859246660832</v>
+        <v>386.2722019273673</v>
       </c>
       <c r="B246" t="n">
-        <v>14.57080475793711</v>
+        <v>-52.30664495498149</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>312.1083875991541</v>
+        <v>388.786014254195</v>
       </c>
       <c r="B247" t="n">
-        <v>14.63343524390163</v>
+        <v>-52.26710072596671</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>314.5244662899128</v>
+        <v>391.2922887676271</v>
       </c>
       <c r="B248" t="n">
-        <v>14.69511333640412</v>
+        <v>-52.22848993859355</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>316.9341984090269</v>
+        <v>393.7910497748045</v>
       </c>
       <c r="B249" t="n">
-        <v>14.75584725986215</v>
+        <v>-52.19080395571754</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>319.3375801824552</v>
+        <v>396.2823191886231</v>
       </c>
       <c r="B250" t="n">
-        <v>14.81564412604632</v>
+        <v>-52.15403425329961</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>321.7346358838066</v>
+        <v>398.7661174931826</v>
       </c>
       <c r="B251" t="n">
-        <v>14.87451169688791</v>
+        <v>-52.11817240212787</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>324.1253770227125</v>
+        <v>401.2424674424743</v>
       </c>
       <c r="B252" t="n">
-        <v>14.93245735717156</v>
+        <v>-52.08321001328849</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>326.5098112229128</v>
+        <v>403.7113928559229</v>
       </c>
       <c r="B253" t="n">
-        <v>14.98948834639472</v>
+        <v>-52.04913875760923</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>328.8879653047019</v>
+        <v>406.1729183885931</v>
       </c>
       <c r="B254" t="n">
-        <v>15.04561230642759</v>
+        <v>-52.01595036979108</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>331.2598451814972</v>
+        <v>408.627060527535</v>
       </c>
       <c r="B255" t="n">
-        <v>15.10083632412827</v>
+        <v>-51.98363676623268</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>333.6254602214378</v>
+        <v>411.073851340493</v>
       </c>
       <c r="B256" t="n">
-        <v>15.15516752055504</v>
+        <v>-51.95218973008076</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>335.9848418260975</v>
+        <v>413.5132970356192</v>
       </c>
       <c r="B257" t="n">
-        <v>15.20861346381309</v>
+        <v>-51.92160144821537</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>338.3379915273155</v>
+        <v>415.9454397096012</v>
       </c>
       <c r="B258" t="n">
-        <v>15.26118098361135</v>
+        <v>-51.89186372489462</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>340.6849350458421</v>
+        <v>418.3702807806389</v>
       </c>
       <c r="B259" t="n">
-        <v>15.31287740075371</v>
+        <v>-51.86296893754923</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>343.0256714169606</v>
+        <v>420.7878630492873</v>
       </c>
       <c r="B260" t="n">
-        <v>15.36370939296751</v>
+        <v>-51.83490903335274</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>345.360228655472</v>
+        <v>423.1981970938429</v>
       </c>
       <c r="B261" t="n">
-        <v>15.41368421969156</v>
+        <v>-51.80767641286386</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>347.6886269365155</v>
+        <v>425.6013046455193</v>
       </c>
       <c r="B262" t="n">
-        <v>15.46280890654458</v>
+        <v>-51.78126340973643</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>350.010855211745</v>
+        <v>427.9972102895219</v>
       </c>
       <c r="B263" t="n">
-        <v>15.51108977533548</v>
+        <v>-51.75566239474023</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>352.3269550363208</v>
+        <v>430.3859365907038</v>
       </c>
       <c r="B264" t="n">
-        <v>15.5585341965953</v>
+        <v>-51.73086582941465</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>354.6369325494151</v>
+        <v>432.7675119293931</v>
       </c>
       <c r="B265" t="n">
-        <v>15.60514874681169</v>
+        <v>-51.70686618466056</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>356.9407952005436</v>
+        <v>435.1419463157945</v>
       </c>
       <c r="B266" t="n">
-        <v>15.65093998723466</v>
+        <v>-51.6836561817355</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>359.2385681077162</v>
+        <v>437.5092718048937</v>
       </c>
       <c r="B267" t="n">
-        <v>15.69591477990377</v>
+        <v>-51.6612283872343</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>361.5302653017673</v>
+        <v>439.8695080936817</v>
       </c>
       <c r="B268" t="n">
-        <v>15.74007971152622</v>
+        <v>-51.63957555615977</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>363.8159021405576</v>
+        <v>442.2226700995851</v>
       </c>
       <c r="B269" t="n">
-        <v>15.78344134425492</v>
+        <v>-51.61869054673303</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>366.0954914725225</v>
+        <v>444.5687932972505</v>
       </c>
       <c r="B270" t="n">
-        <v>15.8260061430197</v>
+        <v>-51.59856609923904</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>368.3690436771642</v>
+        <v>446.9078898983489</v>
       </c>
       <c r="B271" t="n">
-        <v>15.86778048038462</v>
+        <v>-51.57919522241542</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>370.6365818632794</v>
+        <v>449.2399831444822</v>
       </c>
       <c r="B272" t="n">
-        <v>15.90877091304799</v>
+        <v>-51.56057088970479</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>372.8981170338952</v>
+        <v>451.5650933368206</v>
       </c>
       <c r="B273" t="n">
-        <v>15.94898372543986</v>
+        <v>-51.54268616046653</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>375.1536721448855</v>
+        <v>453.8832503893938</v>
       </c>
       <c r="B274" t="n">
-        <v>15.98842536515116</v>
+        <v>-51.5255340841228</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>377.4032490816111</v>
+        <v>456.1944679942483</v>
       </c>
       <c r="B275" t="n">
-        <v>16.02710186281493</v>
+        <v>-51.5091078935402</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>379.6468757135526</v>
+        <v>458.4987707833889</v>
       </c>
       <c r="B276" t="n">
-        <v>16.06501965168587</v>
+        <v>-51.49340079971418</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>381.8845584280612</v>
+        <v>460.7961820413031</v>
       </c>
       <c r="B277" t="n">
-        <v>16.10218474860798</v>
+        <v>-51.47840608561694</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>384.1163132634015</v>
+        <v>463.086726524877</v>
       </c>
       <c r="B278" t="n">
-        <v>16.13860328917229</v>
+        <v>-51.46411708656805</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>386.3421670211279</v>
+        <v>465.3704118488914</v>
       </c>
       <c r="B279" t="n">
-        <v>16.17428153171147</v>
+        <v>-51.45052729996496</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>388.562127428448</v>
+        <v>467.647277864657</v>
       </c>
       <c r="B280" t="n">
-        <v>16.20922537680082</v>
+        <v>-51.43763008764319</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>390.7762061689967</v>
+        <v>469.9173315447688</v>
       </c>
       <c r="B281" t="n">
-        <v>16.24344074767657</v>
+        <v>-51.42541906246313</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>392.9844185535478</v>
+        <v>472.1806026396026</v>
       </c>
       <c r="B282" t="n">
-        <v>16.27693357990344</v>
+        <v>-51.41388776535399</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>395.1867903790031</v>
+        <v>474.4371066555792</v>
       </c>
       <c r="B283" t="n">
-        <v>16.3097099176203</v>
+        <v>-51.40302987011955</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>397.3833242491023</v>
+        <v>476.6868783012716</v>
       </c>
       <c r="B284" t="n">
-        <v>16.34177541212941</v>
+        <v>-51.39283901606279</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>399.5740397237847</v>
+        <v>478.9299195505494</v>
       </c>
       <c r="B285" t="n">
-        <v>16.37313592417803</v>
+        <v>-51.38330904792267</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>401.7589631355382</v>
+        <v>481.166265575348</v>
       </c>
       <c r="B286" t="n">
-        <v>16.40379735881953</v>
+        <v>-51.37443371710646</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>403.938093200545</v>
+        <v>483.3959299461427</v>
       </c>
       <c r="B287" t="n">
-        <v>16.4337651881886</v>
+        <v>-51.36620692224807</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>406.1114557832545</v>
+        <v>485.6189369380061</v>
       </c>
       <c r="B288" t="n">
-        <v>16.46304522067783</v>
+        <v>-51.3586225729378</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>408.2790573768015</v>
+        <v>487.8353117401123</v>
       </c>
       <c r="B289" t="n">
-        <v>16.49164295602668</v>
+        <v>-51.35167463351578</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>410.4409268621952</v>
+        <v>490.0450629066136</v>
       </c>
       <c r="B290" t="n">
-        <v>16.51956414616103</v>
+        <v>-51.34535717163965</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>412.5970735484506</v>
+        <v>492.2482284985197</v>
       </c>
       <c r="B291" t="n">
-        <v>16.54681423997241</v>
+        <v>-51.33966422211077</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>414.7475038949397</v>
+        <v>494.444816906073</v>
       </c>
       <c r="B292" t="n">
-        <v>16.57339861515027</v>
+        <v>-51.33458995554753</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>416.8922455949494</v>
+        <v>496.6348508449922</v>
       </c>
       <c r="B293" t="n">
-        <v>16.59932287014649</v>
+        <v>-51.33012855376523</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>419.0313111463882</v>
+        <v>498.8183542499028</v>
       </c>
       <c r="B294" t="n">
-        <v>16.62459236998802</v>
+        <v>-51.32627425030398</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>421.1647091051802</v>
+        <v>500.9953495153849</v>
       </c>
       <c r="B295" t="n">
-        <v>16.64921239574483</v>
+        <v>-51.32302133541651</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>423.2924639524929</v>
+        <v>503.1658463228112</v>
       </c>
       <c r="B296" t="n">
-        <v>16.67318837132976</v>
+        <v>-51.32036416574834</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>425.4145862424116</v>
+        <v>505.3298769102328</v>
       </c>
       <c r="B297" t="n">
-        <v>16.69652551793413</v>
+        <v>-51.31829711791329</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>427.5310876117836</v>
+        <v>507.4874569697317</v>
       </c>
       <c r="B298" t="n">
-        <v>16.71922903217916</v>
+        <v>-51.31681464003768</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
-        <v>429.6419922613654</v>
+        <v>509.6386068036339</v>
       </c>
       <c r="B299" t="n">
-        <v>16.7413042034334</v>
+        <v>-51.31591122314899</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
-        <v>431.7473137867497</v>
+        <v>511.7833504128452</v>
       </c>
       <c r="B300" t="n">
-        <v>16.76275616427031</v>
+        <v>-51.31558140699599</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
-        <v>433.8470579551286</v>
+        <v>513.9216992824732</v>
       </c>
       <c r="B301" t="n">
-        <v>16.78358993217344</v>
+        <v>-51.3158197806259</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
-        <v>435.9412545277418</v>
+        <v>516.0536791936506</v>
       </c>
       <c r="B302" t="n">
-        <v>16.8038107232515</v>
+        <v>-51.31662097908929</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
-        <v>438.029900130601</v>
+        <v>518.1793157431237</v>
       </c>
       <c r="B303" t="n">
-        <v>16.82342339175662</v>
+        <v>-51.31797969079881</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
-        <v>440.1130280127317</v>
+        <v>520.2986142271308</v>
       </c>
       <c r="B304" t="n">
-        <v>16.8424331016289</v>
+        <v>-51.31989063610831</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
-        <v>442.1906516431125</v>
+        <v>522.4116095407667</v>
       </c>
       <c r="B305" t="n">
-        <v>16.86084478599201</v>
+        <v>-51.32234860496925</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
-        <v>444.2627759361079</v>
+        <v>524.5183130671223</v>
       </c>
       <c r="B306" t="n">
-        <v>16.87866326859125</v>
+        <v>-51.3253484126927</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
-        <v>446.3294148758092</v>
+        <v>526.6187430080281</v>
       </c>
       <c r="B307" t="n">
-        <v>16.89589341986843</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>448.3905972726382</v>
-      </c>
-      <c r="B308" t="n">
-        <v>16.91254019106896</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
-        <v>450.4463320677484</v>
-      </c>
-      <c r="B309" t="n">
-        <v>16.92860832856752</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
-        <v>452.4966292175175</v>
-      </c>
-      <c r="B310" t="n">
-        <v>16.94410255508345</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
-        <v>454.5415048860616</v>
-      </c>
-      <c r="B311" t="n">
-        <v>16.95902760581012</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
-        <v>456.5809831741348</v>
-      </c>
-      <c r="B312" t="n">
-        <v>16.97338823260554</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
-        <v>458.6150683785156</v>
-      </c>
-      <c r="B313" t="n">
-        <v>16.98718900943464</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
-        <v>460.6437805229072</v>
-      </c>
-      <c r="B314" t="n">
-        <v>17.00043458542916</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
-        <v>462.6671347638036</v>
-      </c>
-      <c r="B315" t="n">
-        <v>17.01312953844993</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
-        <v>464.6851434559218</v>
-      </c>
-      <c r="B316" t="n">
-        <v>17.02527839372408</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
-        <v>466.6978274305096</v>
-      </c>
-      <c r="B317" t="n">
-        <v>17.03688569125359</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
-        <v>468.7051937557873</v>
-      </c>
-      <c r="B318" t="n">
-        <v>17.04795585551835</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>470.7072646086471</v>
-      </c>
-      <c r="B319" t="n">
-        <v>17.0584933613822</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>472.7040444820921</v>
-      </c>
-      <c r="B320" t="n">
-        <v>17.06850255509073</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
-        <v>474.6955587812768</v>
-      </c>
-      <c r="B321" t="n">
-        <v>17.0779878556377</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>476.6818155078609</v>
-      </c>
-      <c r="B322" t="n">
-        <v>17.08695356073525</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
-        <v>478.662830988029</v>
-      </c>
-      <c r="B323" t="n">
-        <v>17.09540397525626</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
-        <v>480.6386240829613</v>
-      </c>
-      <c r="B324" t="n">
-        <v>17.10334337858265</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>482.6092049215792</v>
-      </c>
-      <c r="B325" t="n">
-        <v>17.11077598061814</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>484.5745883270043</v>
-      </c>
-      <c r="B326" t="n">
-        <v>17.11770597845643</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>486.5347883047288</v>
-      </c>
-      <c r="B327" t="n">
-        <v>17.12413753342031</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>488.4898241526716</v>
-      </c>
-      <c r="B328" t="n">
-        <v>17.1300747900936</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>490.4397028392164</v>
-      </c>
-      <c r="B329" t="n">
-        <v>17.13552182302197</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
-        <v>492.3844448910833</v>
-      </c>
-      <c r="B330" t="n">
-        <v>17.14048271480357</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>494.3240625892352</v>
-      </c>
-      <c r="B331" t="n">
-        <v>17.14496149216438</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
-        <v>496.2585664441622</v>
-      </c>
-      <c r="B332" t="n">
-        <v>17.14896214875404</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
-        <v>498.1879778531416</v>
-      </c>
-      <c r="B333" t="n">
-        <v>17.15248866908229</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
-        <v>500.1123030458781</v>
-      </c>
-      <c r="B334" t="n">
-        <v>17.15554497741726</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
-        <v>502.0315641169626</v>
-      </c>
-      <c r="B335" t="n">
-        <v>17.15813499430527</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
-        <v>503.9457724061581</v>
-      </c>
-      <c r="B336" t="n">
-        <v>17.16026259144206</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
-        <v>505.8549376321583</v>
-      </c>
-      <c r="B337" t="n">
-        <v>17.16193161157699</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
-        <v>507.7590801773821</v>
-      </c>
-      <c r="B338" t="n">
-        <v>17.16314587699259</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
-        <v>509.6582112236222</v>
-      </c>
-      <c r="B339" t="n">
-        <v>17.1639091714739</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
-        <v>511.5523430783143</v>
-      </c>
-      <c r="B340" t="n">
-        <v>17.16422525186084</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
-        <v>513.4414908863874</v>
-      </c>
-      <c r="B341" t="n">
-        <v>17.16409784659083</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
-        <v>515.3256716313854</v>
-      </c>
-      <c r="B342" t="n">
-        <v>17.16353065298995</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="n">
-        <v>517.2048907625442</v>
-      </c>
-      <c r="B343" t="n">
-        <v>17.16252734402997</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="n">
-        <v>519.0791745213467</v>
-      </c>
-      <c r="B344" t="n">
-        <v>17.16109155339956</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" s="1" t="n">
-        <v>520.9485266480824</v>
-      </c>
-      <c r="B345" t="n">
-        <v>17.15922689979556</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="n">
-        <v>522.8129604045726</v>
-      </c>
-      <c r="B346" t="n">
-        <v>17.15693697009715</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" s="1" t="n">
-        <v>524.6724955597374</v>
-      </c>
-      <c r="B347" t="n">
-        <v>17.15422531328846</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" s="1" t="n">
-        <v>526.5271401237918</v>
-      </c>
-      <c r="B348" t="n">
-        <v>17.15109546610387</v>
+        <v>-51.32888492398718</v>
       </c>
     </row>
   </sheetData>

--- a/Phase_distribution_20.xlsx
+++ b/Phase_distribution_20.xlsx
@@ -440,2450 +440,2450 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>-521.7865581161763</v>
+        <v>-524.6848406032884</v>
       </c>
       <c r="B2" t="n">
-        <v>-135.3847952936802</v>
+        <v>-52.73236968555773</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>-513.2596853534096</v>
+        <v>-515.9646736146883</v>
       </c>
       <c r="B3" t="n">
-        <v>-133.721044998267</v>
+        <v>-51.02359065473206</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>-505.2514905121213</v>
+        <v>-507.7996267453157</v>
       </c>
       <c r="B4" t="n">
-        <v>-132.1784619107348</v>
+        <v>-49.4443054447492</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>-497.6695312355089</v>
+        <v>-500.0879230091737</v>
       </c>
       <c r="B5" t="n">
-        <v>-130.7359566011016</v>
+        <v>-47.97127786873131</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>-490.4437097763884</v>
+        <v>-492.7531409610161</v>
       </c>
       <c r="B6" t="n">
-        <v>-129.3775743078314</v>
+        <v>-46.5870996401103</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>-483.519487236723</v>
+        <v>-485.7362451054083</v>
       </c>
       <c r="B7" t="n">
-        <v>-128.0909315404491</v>
+        <v>-45.2783562817101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>-476.8536330385321</v>
+        <v>-478.9907389574483</v>
       </c>
       <c r="B8" t="n">
-        <v>-126.8662322882623</v>
+        <v>-44.03450380857635</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>-470.4115693067754</v>
+        <v>-472.4794210503998</v>
       </c>
       <c r="B9" t="n">
-        <v>-125.6956432325519</v>
+        <v>-42.84711789396928</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>-464.1647309857984</v>
+        <v>-466.1720491914526</v>
       </c>
       <c r="B10" t="n">
-        <v>-124.5727154482027</v>
+        <v>-41.70935878280707</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>-458.0896893005369</v>
+        <v>-460.0435718154237</v>
       </c>
       <c r="B11" t="n">
-        <v>-123.4921565624293</v>
+        <v>-40.61557322438438</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>-452.1666990479677</v>
+        <v>-454.0731896163281</v>
       </c>
       <c r="B12" t="n">
-        <v>-122.449517227875</v>
+        <v>-39.5610684324237</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>-446.3791815785328</v>
+        <v>-448.2433637481246</v>
       </c>
       <c r="B13" t="n">
-        <v>-121.4410595633686</v>
+        <v>-38.54189136290671</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>-440.7130133102055</v>
+        <v>-442.5392588414858</v>
       </c>
       <c r="B14" t="n">
-        <v>-120.4636004582467</v>
+        <v>-37.55469660968058</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>-435.1560597553238</v>
+        <v>-436.9480659048255</v>
       </c>
       <c r="B15" t="n">
-        <v>-119.5144060571595</v>
+        <v>-36.59660189690072</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>-429.6977951466923</v>
+        <v>-431.4588424402295</v>
       </c>
       <c r="B16" t="n">
-        <v>-118.5911068847513</v>
+        <v>-35.66513947193425</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>-424.3291576058624</v>
+        <v>-426.0620454534553</v>
       </c>
       <c r="B17" t="n">
-        <v>-117.6916571457962</v>
+        <v>-34.75815898878366</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>-419.0421419781773</v>
+        <v>-420.7493463982704</v>
       </c>
       <c r="B18" t="n">
-        <v>-116.814253003349</v>
+        <v>-33.87378263381416</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>-413.8297501321646</v>
+        <v>-415.5134424821586</v>
       </c>
       <c r="B19" t="n">
-        <v>-115.9573139004335</v>
+        <v>-33.01036215713941</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>-408.6858258346837</v>
+        <v>-410.347959322685</v>
       </c>
       <c r="B20" t="n">
-        <v>-115.1194461670412</v>
+        <v>-32.16645311458794</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>-403.60491935454</v>
+        <v>-405.247150157449</v>
       </c>
       <c r="B21" t="n">
-        <v>-114.2994133560291</v>
+        <v>-31.34075770523947</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>-398.582125646505</v>
+        <v>-400.2059910401856</v>
       </c>
       <c r="B22" t="n">
-        <v>-113.4961039374684</v>
+        <v>-30.53213390190948</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>-393.6130985129179</v>
+        <v>-395.2199576804889</v>
       </c>
       <c r="B23" t="n">
-        <v>-112.7085284502895</v>
+        <v>-29.73955366998774</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>-388.6939265450874</v>
+        <v>-390.285025675467</v>
       </c>
       <c r="B24" t="n">
-        <v>-111.9357951485061</v>
+        <v>-28.96209840897194</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>-383.8211509934159</v>
+        <v>-385.3975705925149</v>
       </c>
       <c r="B25" t="n">
-        <v>-111.1771088928086</v>
+        <v>-28.19893902628453</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>-378.991615374804</v>
+        <v>-380.5543031534129</v>
       </c>
       <c r="B26" t="n">
-        <v>-110.4317442075663</v>
+        <v>-27.44932242698164</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>-374.2024541243961</v>
+        <v>-375.7523428145723</v>
       </c>
       <c r="B27" t="n">
-        <v>-109.699040881846</v>
+        <v>-26.71257981250577</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>-369.4510857619557</v>
+        <v>-370.9889600318903</v>
       </c>
       <c r="B28" t="n">
-        <v>-108.978400447639</v>
+        <v>-25.98808434273261</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>-364.7351672711807</v>
+        <v>-366.26177501185</v>
       </c>
       <c r="B29" t="n">
-        <v>-108.2692770014045</v>
+        <v>-25.27527947766339</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>-360.0525787518747</v>
+        <v>-361.5686031793185</v>
       </c>
       <c r="B30" t="n">
-        <v>-107.5711729589335</v>
+        <v>-24.57365325651875</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>-355.4013687548629</v>
+        <v>-356.907418297388</v>
       </c>
       <c r="B31" t="n">
-        <v>-106.8836292122111</v>
+        <v>-23.88273121796402</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>-350.7797713934168</v>
+        <v>-352.2763928679761</v>
       </c>
       <c r="B32" t="n">
-        <v>-106.2062262345769</v>
+        <v>-23.20208096522947</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>-346.1861812349439</v>
+        <v>-347.6738710360149</v>
       </c>
       <c r="B33" t="n">
-        <v>-105.5385789988852</v>
+        <v>-22.53130668545427</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>-341.6190985089272</v>
+        <v>-343.0983599216687</v>
       </c>
       <c r="B34" t="n">
-        <v>-104.8803278679281</v>
+        <v>-21.87004657324132</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>-337.0771389273808</v>
+        <v>-338.5483883947571</v>
       </c>
       <c r="B35" t="n">
-        <v>-104.2311391156539</v>
+        <v>-21.21795144361616</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>-332.5590965328072</v>
+        <v>-334.0227164884165</v>
       </c>
       <c r="B36" t="n">
-        <v>-103.5907128930496</v>
+        <v>-20.57471401692331</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>-328.0637985111757</v>
+        <v>-329.5201518349322</v>
       </c>
       <c r="B37" t="n">
-        <v>-102.9587616608096</v>
+        <v>-19.94004158361008</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>-323.59018603644</v>
+        <v>-325.0396068669676</v>
       </c>
       <c r="B38" t="n">
-        <v>-102.3350210480257</v>
+        <v>-19.31366351138911</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>-319.1372833581339</v>
+        <v>-320.5800895763891</v>
       </c>
       <c r="B39" t="n">
-        <v>-101.7192447797828</v>
+        <v>-18.69532920012975</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>-314.7041904130595</v>
+        <v>-316.140675717474</v>
       </c>
       <c r="B40" t="n">
-        <v>-101.1112030517775</v>
+        <v>-18.08480358193074</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>-310.2900846755779</v>
+        <v>-311.720480801887</v>
       </c>
       <c r="B41" t="n">
-        <v>-100.5106822245669</v>
+        <v>-17.48186279972541</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>-305.8941897670454</v>
+        <v>-307.3187586358364</v>
       </c>
       <c r="B42" t="n">
-        <v>-99.9174800548372</v>
+        <v>-16.88630713767196</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>-301.5157851993927</v>
+        <v>-302.9347508719334</v>
       </c>
       <c r="B43" t="n">
-        <v>-99.33140663081548</v>
+        <v>-16.29794003805407</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>-297.1542238180378</v>
+        <v>-298.5678134199566</v>
       </c>
       <c r="B44" t="n">
-        <v>-98.75228627344262</v>
+        <v>-15.71658482425488</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>-292.8088975443238</v>
+        <v>-294.2172727741227</v>
       </c>
       <c r="B45" t="n">
-        <v>-98.1799525559594</v>
+        <v>-15.14206509367557</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>-288.4792522604041</v>
+        <v>-289.882600426628</v>
       </c>
       <c r="B46" t="n">
-        <v>-97.6142499482811</v>
+        <v>-14.57422754095623</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>-284.1647376320111</v>
+        <v>-285.563223521507</v>
       </c>
       <c r="B47" t="n">
-        <v>-97.05502697734732</v>
+        <v>-14.01291660585542</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>-279.8648883302142</v>
+        <v>-281.2586647492142</v>
       </c>
       <c r="B48" t="n">
-        <v>-96.50214653495425</v>
+        <v>-13.45799259211955</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>-275.5792467753352</v>
+        <v>-276.9684545785973</v>
       </c>
       <c r="B49" t="n">
-        <v>-95.95547555699881</v>
+        <v>-12.9093199242879</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>-271.307377868439</v>
+        <v>-272.6921764929449</v>
       </c>
       <c r="B50" t="n">
-        <v>-95.41488677834934</v>
+        <v>-12.3667727603264</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>-267.0489327715972</v>
+        <v>-268.4294070691939</v>
       </c>
       <c r="B51" t="n">
-        <v>-94.88026653511247</v>
+        <v>-11.83022715161647</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>-262.8035082448545</v>
+        <v>-264.1797981454574</v>
       </c>
       <c r="B52" t="n">
-        <v>-94.35149683050128</v>
+        <v>-11.2995712406653</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>-258.5707986539107</v>
+        <v>-259.9429901766587</v>
       </c>
       <c r="B53" t="n">
-        <v>-93.82847426142882</v>
+        <v>-10.77469414429896</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>-254.3504605575581</v>
+        <v>-255.7186778356033</v>
       </c>
       <c r="B54" t="n">
-        <v>-93.31109295762155</v>
+        <v>-10.25549399222552</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>-250.1422440212216</v>
+        <v>-251.5065683515536</v>
       </c>
       <c r="B55" t="n">
-        <v>-92.79926062871738</v>
+        <v>-9.741872557680296</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>-245.9458491700985</v>
+        <v>-247.3063459086155</v>
       </c>
       <c r="B56" t="n">
-        <v>-92.29288083216352</v>
+        <v>-9.233730865138256</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>-241.7610387894444</v>
+        <v>-243.1178198940597</v>
       </c>
       <c r="B57" t="n">
-        <v>-91.79186660014426</v>
+        <v>-8.730986983006574</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>-237.5875773446703</v>
+        <v>-238.9406882415981</v>
       </c>
       <c r="B58" t="n">
-        <v>-91.29613289169913</v>
+        <v>-8.233547323074532</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>-233.4252626015173</v>
+        <v>-234.7747784071559</v>
       </c>
       <c r="B59" t="n">
-        <v>-90.80560026277283</v>
+        <v>-7.741335488344049</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>-229.2738656995529</v>
+        <v>-230.6198557983494</v>
       </c>
       <c r="B60" t="n">
-        <v>-90.32018770039809</v>
+        <v>-7.254269268245594</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>-225.1332235346473</v>
+        <v>-226.4757444810467</v>
       </c>
       <c r="B61" t="n">
-        <v>-89.83982338954712</v>
+        <v>-6.7722748785541</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>-221.0031531228296</v>
+        <v>-222.3422651769863</v>
       </c>
       <c r="B62" t="n">
-        <v>-89.36443456613006</v>
+        <v>-6.295279536623184</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>-216.8835002765274</v>
+        <v>-218.2192435254496</v>
       </c>
       <c r="B63" t="n">
-        <v>-88.89395311755931</v>
+        <v>-5.823212391707614</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>-212.7741075294816</v>
+        <v>-214.1065422537395</v>
       </c>
       <c r="B64" t="n">
-        <v>-88.42831180776778</v>
+        <v>-5.356008116650315</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>-208.6748521685518</v>
+        <v>-210.0040111898739</v>
       </c>
       <c r="B65" t="n">
-        <v>-87.96744852657298</v>
+        <v>-4.893601106064551</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>-204.5855901556943</v>
+        <v>-205.9115268525897</v>
       </c>
       <c r="B66" t="n">
-        <v>-87.51129988295048</v>
+        <v>-4.435929920425281</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>-200.5062115803705</v>
+        <v>-201.8289521180498</v>
       </c>
       <c r="B67" t="n">
-        <v>-87.05980738987483</v>
+        <v>-3.982932689152506</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>-196.4366230382012</v>
+        <v>-197.7561911475937</v>
       </c>
       <c r="B68" t="n">
-        <v>-86.61291536798615</v>
+        <v>-3.53455317222236</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>-192.3766932557823</v>
+        <v>-193.6931409466791</v>
       </c>
       <c r="B69" t="n">
-        <v>-86.17056495463595</v>
+        <v>-3.09073529159096</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>-188.3263458245067</v>
+        <v>-189.6396912769809</v>
       </c>
       <c r="B70" t="n">
-        <v>-85.73270423229684</v>
+        <v>-2.651423134102771</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>-184.2854964281499</v>
+        <v>-185.5957710917432</v>
       </c>
       <c r="B71" t="n">
-        <v>-85.29928127142659</v>
+        <v>-2.216565937719537</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>-180.2540602743238</v>
+        <v>-181.5612854191857</v>
       </c>
       <c r="B72" t="n">
-        <v>-84.87024493535699</v>
+        <v>-1.7861112016231</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>-176.2319745801206</v>
+        <v>-177.5361697042007</v>
       </c>
       <c r="B73" t="n">
-        <v>-84.44554723119194</v>
+        <v>-1.360010500308647</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>-172.2191678106266</v>
+        <v>-173.5203575916503</v>
       </c>
       <c r="B74" t="n">
-        <v>-84.02513999346451</v>
+        <v>-0.9382159712046985</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>-168.2155742902441</v>
+        <v>-169.5137816937359</v>
       </c>
       <c r="B75" t="n">
-        <v>-83.60897641862215</v>
+        <v>-0.5206803874140178</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>-164.2211343614961</v>
+        <v>-165.516380311209</v>
       </c>
       <c r="B76" t="n">
-        <v>-83.1970110433121</v>
+        <v>-0.1073578400498718</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>-160.2358228721107</v>
+        <v>-161.5281046626531</v>
       </c>
       <c r="B77" t="n">
-        <v>-82.78920261012547</v>
+        <v>0.3017955597980517</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>-156.2595681404271</v>
+        <v>-157.548925475683</v>
       </c>
       <c r="B78" t="n">
-        <v>-82.38550572202791</v>
+        <v>0.7068210776881472</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>-152.2923325787009</v>
+        <v>-153.5787671520297</v>
       </c>
       <c r="B79" t="n">
-        <v>-81.98587910536185</v>
+        <v>1.107764067970379</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>-148.3340831733899</v>
+        <v>-149.6176024958961</v>
       </c>
       <c r="B80" t="n">
-        <v>-81.59028252393102</v>
+        <v>1.50466434770405</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>-144.3847905912356</v>
+        <v>-145.6654153273767</v>
       </c>
       <c r="B81" t="n">
-        <v>-81.19867666189498</v>
+        <v>1.897560101361563</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>-140.4444152620005</v>
+        <v>-141.7221433944487</v>
       </c>
       <c r="B82" t="n">
-        <v>-80.81102173524374</v>
+        <v>2.286493542395107</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>-136.5129286429888</v>
+        <v>-137.7877712063415</v>
       </c>
       <c r="B83" t="n">
-        <v>-80.42727958857211</v>
+        <v>2.671501696169287</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>-132.590319404459</v>
+        <v>-133.8622862991371</v>
       </c>
       <c r="B84" t="n">
-        <v>-80.04741423917937</v>
+        <v>3.052620820192402</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>-128.6765515926647</v>
+        <v>-129.945651759376</v>
       </c>
       <c r="B85" t="n">
-        <v>-79.67138779842224</v>
+        <v>3.429889060760445</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>-124.7716131520739</v>
+        <v>-126.0378543835051</v>
       </c>
       <c r="B86" t="n">
-        <v>-79.2991651630374</v>
+        <v>3.803341784894911</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>-120.8754809337464</v>
+        <v>-122.1388634752741</v>
       </c>
       <c r="B87" t="n">
-        <v>-78.93071062006538</v>
+        <v>4.173015570065814</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>-116.9881623689562</v>
+        <v>-118.2486855654338</v>
       </c>
       <c r="B88" t="n">
-        <v>-78.56599177446441</v>
+        <v>4.538943020397937</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>-113.1096326868819</v>
+        <v>-114.3673018298022</v>
       </c>
       <c r="B89" t="n">
-        <v>-78.20497360696658</v>
+        <v>4.901158730516983</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>-109.2398562660606</v>
+        <v>-110.4946890605427</v>
       </c>
       <c r="B90" t="n">
-        <v>-77.84762054936522</v>
+        <v>5.259697265270688</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>-105.3788742642046</v>
+        <v>-106.6308545391812</v>
       </c>
       <c r="B91" t="n">
-        <v>-77.49390451198457</v>
+        <v>5.614589961319723</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>-101.5266484285992</v>
+        <v>-102.7757795871963</v>
       </c>
       <c r="B92" t="n">
-        <v>-77.14379045811313</v>
+        <v>5.965870169076879</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>-97.68317063212868</v>
+        <v>-98.92946811783185</v>
       </c>
       <c r="B93" t="n">
-        <v>-76.79724652189589</v>
+        <v>6.313568793959348</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>-93.84845311386508</v>
+        <v>-95.09191250435188</v>
       </c>
       <c r="B94" t="n">
-        <v>-76.45424302287046</v>
+        <v>6.657717433439956</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>-90.02249724960579</v>
+        <v>-91.26311303290161</v>
       </c>
       <c r="B95" t="n">
-        <v>-76.11474962687703</v>
+        <v>6.998346618480895</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>-86.20528696300387</v>
+        <v>-87.44305348942206</v>
       </c>
       <c r="B96" t="n">
-        <v>-75.77873480108525</v>
+        <v>7.335487994078676</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>-82.39682553733758</v>
+        <v>-83.6317632174801</v>
       </c>
       <c r="B97" t="n">
-        <v>-75.44616907079273</v>
+        <v>7.669168855970895</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>-78.59712643397535</v>
+        <v>-79.82922160682148</v>
       </c>
       <c r="B98" t="n">
-        <v>-75.11702415320013</v>
+        <v>7.999420578232474</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>-74.80618365244169</v>
+        <v>-76.03542900647605</v>
       </c>
       <c r="B99" t="n">
-        <v>-74.79127037985756</v>
+        <v>8.326272359635482</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>-71.02399212902263</v>
+        <v>-72.2503936844717</v>
       </c>
       <c r="B100" t="n">
-        <v>-74.46887849029662</v>
+        <v>8.649752412459605</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>-67.25057481634373</v>
+        <v>-68.47413776147656</v>
       </c>
       <c r="B101" t="n">
-        <v>-74.14982190347621</v>
+        <v>8.969887494157348</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>-63.48592966546635</v>
+        <v>-64.70663902777423</v>
       </c>
       <c r="B102" t="n">
-        <v>-73.83407218827801</v>
+        <v>9.286707832571693</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>-59.73004876851147</v>
+        <v>-60.94792212157933</v>
       </c>
       <c r="B103" t="n">
-        <v>-73.52160072971151</v>
+        <v>9.600239405605862</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>-55.98295742147389</v>
+        <v>-57.19797368096574</v>
       </c>
       <c r="B104" t="n">
-        <v>-73.21238195378299</v>
+        <v>9.910511096658553</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>-52.24465698057159</v>
+        <v>-53.45681905115109</v>
       </c>
       <c r="B105" t="n">
-        <v>-72.90638855307256</v>
+        <v>10.21754830196977</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>-48.51515468355156</v>
+        <v>-49.72446066638511</v>
       </c>
       <c r="B106" t="n">
-        <v>-72.60359397345024</v>
+        <v>10.52137806015514</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>-44.79444713873886</v>
+        <v>-46.00089281971123</v>
       </c>
       <c r="B107" t="n">
-        <v>-72.30397106578084</v>
+        <v>10.82202779275576</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>-41.08254950518663</v>
+        <v>-42.28614545956447</v>
       </c>
       <c r="B108" t="n">
-        <v>-72.00749443742626</v>
+        <v>11.11952178910795</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>-37.37947851451929</v>
+        <v>-38.58020772985937</v>
       </c>
       <c r="B109" t="n">
-        <v>-71.71413904768957</v>
+        <v>11.4138873757754</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>-33.68523164695711</v>
+        <v>-34.88309153922185</v>
       </c>
       <c r="B110" t="n">
-        <v>-71.42387856940246</v>
+        <v>11.7051498002505</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>-29.99982154829378</v>
+        <v>-31.1948134370396</v>
       </c>
       <c r="B111" t="n">
-        <v>-71.13668811797703</v>
+        <v>11.99333371939366</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>-26.32325202260466</v>
+        <v>-27.5153724242682</v>
       </c>
       <c r="B112" t="n">
-        <v>-70.85254235081084</v>
+        <v>12.2784649305658</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>-22.65554236584893</v>
+        <v>-23.84478646452269</v>
       </c>
       <c r="B113" t="n">
-        <v>-70.57141734905457</v>
+        <v>12.56056752495519</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>-18.99669831886315</v>
+        <v>-20.18305675252725</v>
       </c>
       <c r="B114" t="n">
-        <v>-70.29328836588616</v>
+        <v>12.8396666639116</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>-15.34672728348341</v>
+        <v>-16.53020763770443</v>
       </c>
       <c r="B115" t="n">
-        <v>-70.01813100805452</v>
+        <v>13.11578552432763</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>-11.70562454130144</v>
+        <v>-12.88623346639056</v>
       </c>
       <c r="B116" t="n">
-        <v>-69.74592020097663</v>
+        <v>13.38894934318901</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>-8.07342617775663</v>
+        <v>-9.251142253005654</v>
       </c>
       <c r="B117" t="n">
-        <v>-69.47663413005733</v>
+        <v>13.65918209439184</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>-4.450118209396394</v>
+        <v>-5.62494165145494</v>
       </c>
       <c r="B118" t="n">
-        <v>-69.21024745798175</v>
+        <v>13.92650756482143</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>-0.8357189895657343</v>
+        <v>-2.007658200431655</v>
       </c>
       <c r="B119" t="n">
-        <v>-68.94673745836687</v>
+        <v>14.19094795564865</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>2.769762716658371</v>
+        <v>1.600719486924332</v>
       </c>
       <c r="B120" t="n">
-        <v>-68.68608089495001</v>
+        <v>14.45252804431561</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>6.366312504331359</v>
+        <v>5.200163915953521</v>
       </c>
       <c r="B121" t="n">
-        <v>-68.42825513480585</v>
+        <v>14.71126957417047</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>9.953939781061861</v>
+        <v>8.790684585497367</v>
       </c>
       <c r="B122" t="n">
-        <v>-68.17323604351876</v>
+        <v>14.96719676103731</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>13.53261754578894</v>
+        <v>12.37227219708072</v>
       </c>
       <c r="B123" t="n">
-        <v>-67.92100228011722</v>
+        <v>15.22033225829296</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>17.1023426462251</v>
+        <v>15.94490129807039</v>
       </c>
       <c r="B124" t="n">
-        <v>-67.67153099187945</v>
+        <v>15.47069740102762</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>20.66311867981199</v>
+        <v>19.5085855029026</v>
       </c>
       <c r="B125" t="n">
-        <v>-67.42479906237443</v>
+        <v>15.71831607750448</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>24.21491340550435</v>
+        <v>23.0632993802564</v>
       </c>
       <c r="B126" t="n">
-        <v>-67.1807860416063</v>
+        <v>15.96320925792452</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>27.75774625205991</v>
+        <v>26.60903884191871</v>
       </c>
       <c r="B127" t="n">
-        <v>-66.93946810294165</v>
+        <v>16.20539921961182</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>31.29159635475273</v>
+        <v>30.14580572619147</v>
       </c>
       <c r="B128" t="n">
-        <v>-66.70082437510368</v>
+        <v>16.44490844748398</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>34.81646031554298</v>
+        <v>33.6735869712673</v>
       </c>
       <c r="B129" t="n">
-        <v>-66.46483297161171</v>
+        <v>16.68175822749453</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>38.33233471830792</v>
+        <v>37.19237752242326</v>
       </c>
       <c r="B130" t="n">
-        <v>-66.23147219430817</v>
+        <v>16.91597021067798</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>41.83920590335902</v>
+        <v>40.70216970763654</v>
       </c>
       <c r="B131" t="n">
-        <v>-66.00072120048122</v>
+        <v>17.14756569462753</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>45.33705779284956</v>
+        <v>44.20295337927817</v>
       </c>
       <c r="B132" t="n">
-        <v>-65.77255946282955</v>
+        <v>17.37656564282418</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>48.82591623754001</v>
+        <v>47.69472532014261</v>
       </c>
       <c r="B133" t="n">
-        <v>-65.5469639053311</v>
+        <v>17.60299130142775</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>52.30574905703181</v>
+        <v>51.17748833602304</v>
       </c>
       <c r="B134" t="n">
-        <v>-65.32391539809842</v>
+        <v>17.82686412403788</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>55.77656017120994</v>
+        <v>54.6512283387986</v>
       </c>
       <c r="B135" t="n">
-        <v>-65.10339263715176</v>
+        <v>18.04820430354229</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>59.23834981365539</v>
+        <v>58.11595147691192</v>
       </c>
       <c r="B136" t="n">
-        <v>-64.88537473793042</v>
+        <v>18.26703315665293</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>62.69111109053358</v>
+        <v>61.57163987856161</v>
       </c>
       <c r="B137" t="n">
-        <v>-64.66984143631845</v>
+        <v>18.48337031154523</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>66.13482957131897</v>
+        <v>65.01829094519738</v>
       </c>
       <c r="B138" t="n">
-        <v>-64.45677309177995</v>
+        <v>18.69723620408121</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>69.56951265716113</v>
+        <v>68.45590615274918</v>
       </c>
       <c r="B139" t="n">
-        <v>-64.24614887162275</v>
+        <v>18.90865135215398</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>72.99515895103825</v>
+        <v>71.88448797037999</v>
       </c>
       <c r="B140" t="n">
-        <v>-64.03794866175008</v>
+        <v>19.11763615989912</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>76.41175457463098</v>
+        <v>75.30401852118027</v>
       </c>
       <c r="B141" t="n">
-        <v>-63.83215326116979</v>
+        <v>19.32420963404672</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>79.81931310771786</v>
+        <v>78.71451620682369</v>
       </c>
       <c r="B142" t="n">
-        <v>-63.62874197277361</v>
+        <v>19.52839281594055</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>83.21782683681785</v>
+        <v>82.11595777299013</v>
       </c>
       <c r="B143" t="n">
-        <v>-63.42769554599627</v>
+        <v>19.7302040828809</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>86.60728356303333</v>
+        <v>85.50835122537569</v>
       </c>
       <c r="B144" t="n">
-        <v>-63.22899513669108</v>
+        <v>19.92966352970734</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>89.98769042586201</v>
+        <v>88.89169983702276</v>
       </c>
       <c r="B145" t="n">
-        <v>-63.03262091568556</v>
+        <v>20.12679079978892</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>93.35904833891881</v>
+        <v>92.26599179018463</v>
       </c>
       <c r="B146" t="n">
-        <v>-62.83855358283444</v>
+        <v>20.32160450454961</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>96.72136359683891</v>
+        <v>95.63124129691666</v>
       </c>
       <c r="B147" t="n">
-        <v>-62.64677368946715</v>
+        <v>20.51412460687635</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>100.0746202566375</v>
+        <v>98.98743595477355</v>
       </c>
       <c r="B148" t="n">
-        <v>-62.45726320407041</v>
+        <v>20.70436938444831</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>103.41882828308</v>
+        <v>102.3345845073775</v>
       </c>
       <c r="B149" t="n">
-        <v>-62.27000276905795</v>
+        <v>20.89235817124558</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>106.7539851865174</v>
+        <v>105.6726773105837</v>
       </c>
       <c r="B150" t="n">
-        <v>-62.08497388448231</v>
+        <v>21.07810911482568</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>110.0800955114746</v>
+        <v>109.0017270217923</v>
       </c>
       <c r="B151" t="n">
-        <v>-61.9021578077602</v>
+        <v>21.26164145847926</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>113.3971651383373</v>
+        <v>112.3217222792663</v>
       </c>
       <c r="B152" t="n">
-        <v>-61.7215358786776</v>
+        <v>21.44297296771222</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>116.7051876666182</v>
+        <v>115.6326862672831</v>
       </c>
       <c r="B153" t="n">
-        <v>-61.54309025192728</v>
+        <v>21.62212314744406</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>120.0041683531092</v>
+        <v>118.9346001952696</v>
       </c>
       <c r="B154" t="n">
-        <v>-61.36680259103255</v>
+        <v>21.79910907386511</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>123.2941114858851</v>
+        <v>122.2274763184551</v>
       </c>
       <c r="B155" t="n">
-        <v>-61.19265476122584</v>
+        <v>21.97394936118141</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>126.575022716603</v>
+        <v>125.5113134258582</v>
       </c>
       <c r="B156" t="n">
-        <v>-61.02062870348203</v>
+        <v>22.14666175517436</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>129.8469091258095</v>
+        <v>128.7861218074355</v>
       </c>
       <c r="B157" t="n">
-        <v>-60.85070643275102</v>
+        <v>22.31726446318899</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>133.1097543806404</v>
+        <v>132.0519098946951</v>
       </c>
       <c r="B158" t="n">
-        <v>-60.68287131141375</v>
+        <v>22.48577544124424</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>136.3635849830571</v>
+        <v>135.3086603363266</v>
       </c>
       <c r="B159" t="n">
-        <v>-60.51710463117632</v>
+        <v>22.65221118373211</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>139.6083975343417</v>
+        <v>138.5564053171721</v>
       </c>
       <c r="B160" t="n">
-        <v>-60.35338936876278</v>
+        <v>22.81659058210252</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>142.8442032680289</v>
+        <v>141.7951273097484</v>
       </c>
       <c r="B161" t="n">
-        <v>-60.1917078966037</v>
+        <v>22.97892985460487</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>146.0710036977924</v>
+        <v>145.024850758607</v>
       </c>
       <c r="B162" t="n">
-        <v>-60.03204321591167</v>
+        <v>23.13924719801341</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>149.288804921723</v>
+        <v>148.2455742418616</v>
       </c>
       <c r="B163" t="n">
-        <v>-59.87437823406836</v>
+        <v>23.29755936921171</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>152.4976089934281</v>
+        <v>151.4572929456224</v>
       </c>
       <c r="B164" t="n">
-        <v>-59.71869619070401</v>
+        <v>23.45388283786403</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>155.6974348580706</v>
+        <v>154.660039797384</v>
       </c>
       <c r="B165" t="n">
-        <v>-59.56497964572006</v>
+        <v>23.60823576847449</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>158.8882782569133</v>
+        <v>157.8537934558886</v>
       </c>
       <c r="B166" t="n">
-        <v>-59.41321241547794</v>
+        <v>23.76063356336095</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>162.0701517575397</v>
+        <v>161.0385694421302</v>
       </c>
       <c r="B167" t="n">
-        <v>-59.26337764061842</v>
+        <v>23.91109327693783</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>165.2430597819362</v>
+        <v>164.2143956146004</v>
       </c>
       <c r="B168" t="n">
-        <v>-59.11545898264148</v>
+        <v>24.05963238855068</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>168.4070181804084</v>
+        <v>167.3812558425361</v>
       </c>
       <c r="B169" t="n">
-        <v>-58.96943970447379</v>
+        <v>24.20626618040885</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>171.5620277490829</v>
+        <v>170.5391688318712</v>
       </c>
       <c r="B170" t="n">
-        <v>-58.8253038993258</v>
+        <v>24.35101143667009</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>174.7081088190414</v>
+        <v>173.6881520546956</v>
       </c>
       <c r="B171" t="n">
-        <v>-58.68303489807246</v>
+        <v>24.49388473542388</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>177.8452532287777</v>
+        <v>176.8281931678275</v>
       </c>
       <c r="B172" t="n">
-        <v>-58.54261745158752</v>
+        <v>24.63490117624784</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>180.9734979694812</v>
+        <v>179.9593182984849</v>
       </c>
       <c r="B173" t="n">
-        <v>-58.40403441814084</v>
+        <v>24.77407746981436</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>184.092829915927</v>
+        <v>183.0815400862314</v>
       </c>
       <c r="B174" t="n">
-        <v>-58.26727102051296</v>
+        <v>24.91142957715627</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>187.2032581956259</v>
+        <v>186.1948619120507</v>
       </c>
       <c r="B175" t="n">
-        <v>-58.1323116067224</v>
+        <v>25.04697292523301</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>190.3048094032442</v>
+        <v>189.2992942453663</v>
       </c>
       <c r="B176" t="n">
-        <v>-57.99913990375723</v>
+        <v>25.18072312989298</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>193.3974914076961</v>
+        <v>192.3948464134913</v>
       </c>
       <c r="B177" t="n">
-        <v>-57.86774058504767</v>
+        <v>25.31269563211441</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>196.4812980287645</v>
+        <v>195.4815412000702</v>
       </c>
       <c r="B178" t="n">
-        <v>-57.73809903138473</v>
+        <v>25.44290631447862</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>199.5562631157374</v>
+        <v>198.5593672632154</v>
       </c>
       <c r="B179" t="n">
-        <v>-57.61019906110411</v>
+        <v>25.57136949713021</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>202.6223937606995</v>
+        <v>201.6283624372415</v>
       </c>
       <c r="B180" t="n">
-        <v>-57.48402575120986</v>
+        <v>25.69810143637517</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>205.6796977640337</v>
+        <v>204.6885314979364</v>
       </c>
       <c r="B181" t="n">
-        <v>-57.35956426464449</v>
+        <v>25.82311687575043</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>208.7281909552389</v>
+        <v>207.7398862961255</v>
       </c>
       <c r="B182" t="n">
-        <v>-57.23679955744132</v>
+        <v>25.94643073349079</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>211.7678863782653</v>
+        <v>210.7824321858321</v>
       </c>
       <c r="B183" t="n">
-        <v>-57.11571682346761</v>
+        <v>26.06805754863549</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>214.7987941134046</v>
+        <v>213.8161891656409</v>
       </c>
       <c r="B184" t="n">
-        <v>-56.9963014940295</v>
+        <v>26.1880123277318</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>217.8209314065897</v>
+        <v>216.8411682957974</v>
       </c>
       <c r="B185" t="n">
-        <v>-56.87853883770293</v>
+        <v>26.30630959713253</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>220.83430734909</v>
+        <v>219.8573898730153</v>
       </c>
       <c r="B186" t="n">
-        <v>-56.76241456164271</v>
+        <v>26.42296412262152</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>223.8389462470792</v>
+        <v>222.8648578919746</v>
       </c>
       <c r="B187" t="n">
-        <v>-56.64791390728155</v>
+        <v>26.53798991952996</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>226.8348545857262</v>
+        <v>225.8635967802769</v>
       </c>
       <c r="B188" t="n">
-        <v>-56.5350229193902</v>
+        <v>26.65140167029307</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>229.8220425207397</v>
+        <v>228.8536131939083</v>
       </c>
       <c r="B189" t="n">
-        <v>-56.42372761078545</v>
+        <v>26.76321326158489</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>232.8005381662487</v>
+        <v>231.8349315062981</v>
       </c>
       <c r="B190" t="n">
-        <v>-56.31401344573942</v>
+        <v>26.87343912782237</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>235.7703432261726</v>
+        <v>234.8075621750494</v>
       </c>
       <c r="B191" t="n">
-        <v>-56.20586698292959</v>
+        <v>26.98209306539593</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>238.7314948866284</v>
+        <v>237.7715110000024</v>
       </c>
       <c r="B192" t="n">
-        <v>-56.09927360387979</v>
+        <v>27.0891885956799</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>241.6839815928314</v>
+        <v>240.7268131968927</v>
       </c>
       <c r="B193" t="n">
-        <v>-55.99422056500271</v>
+        <v>27.19474018567007</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>244.6278389665973</v>
+        <v>243.6734679366458</v>
       </c>
       <c r="B194" t="n">
-        <v>-55.89069354201905</v>
+        <v>27.29876089077635</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>247.5630730307649</v>
+        <v>246.6115002290918</v>
       </c>
       <c r="B195" t="n">
-        <v>-55.78867937890499</v>
+        <v>27.40126457684602</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>250.4897093482355</v>
+        <v>249.5409168283719</v>
       </c>
       <c r="B196" t="n">
-        <v>-55.68816434821025</v>
+        <v>27.50226435676055</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>253.4077597974695</v>
+        <v>252.461751657666</v>
       </c>
       <c r="B197" t="n">
-        <v>-55.58913531070544</v>
+        <v>27.60177416725813</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>256.3172363504748</v>
+        <v>255.3740149362164</v>
       </c>
       <c r="B198" t="n">
-        <v>-55.49157922719013</v>
+        <v>27.69980701253459</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>259.2181597575459</v>
+        <v>258.2777119618212</v>
       </c>
       <c r="B199" t="n">
-        <v>-55.39548287175148</v>
+        <v>27.79637563440306</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>262.1105577147027</v>
+        <v>261.1728772604185</v>
       </c>
       <c r="B200" t="n">
-        <v>-55.30083290800883</v>
+        <v>27.89149363822503</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>264.9944291445306</v>
+        <v>264.0595097363001</v>
       </c>
       <c r="B201" t="n">
-        <v>-55.20761704928367</v>
+        <v>27.98517334367239</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>267.8698138396004</v>
+        <v>266.93764069678</v>
       </c>
       <c r="B202" t="n">
-        <v>-55.1158217906509</v>
+        <v>28.0774280239466</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>270.7367028399291</v>
+        <v>269.8072896591385</v>
       </c>
       <c r="B203" t="n">
-        <v>-55.02543529700239</v>
+        <v>28.16827045201046</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>273.595141038627</v>
+        <v>272.6684712913866</v>
       </c>
       <c r="B204" t="n">
-        <v>-54.93644413137386</v>
+        <v>28.25771314073964</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>276.4451316152224</v>
+        <v>275.5211987835791</v>
       </c>
       <c r="B205" t="n">
-        <v>-54.84883627897878</v>
+        <v>28.34576845689654</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>279.286706178981</v>
+        <v>278.365503733368</v>
       </c>
       <c r="B206" t="n">
-        <v>-54.76259894924397</v>
+        <v>28.43244922709709</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>282.1198666995151</v>
+        <v>281.2013880574761</v>
       </c>
       <c r="B207" t="n">
-        <v>-54.67772035874131</v>
+        <v>28.51776726550554</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>284.9446368355547</v>
+        <v>284.0288737748957</v>
       </c>
       <c r="B208" t="n">
-        <v>-54.59418816471305</v>
+        <v>28.60173490131299</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>287.7610353865841</v>
+        <v>286.8479942501682</v>
       </c>
       <c r="B209" t="n">
-        <v>-54.51199027586091</v>
+        <v>28.68436468568873</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>290.5690926732387</v>
+        <v>289.6587601884847</v>
       </c>
       <c r="B210" t="n">
-        <v>-54.43111437334335</v>
+        <v>28.76566839394044</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>293.3688211381767</v>
+        <v>292.4611888250906</v>
       </c>
       <c r="B211" t="n">
-        <v>-54.35154876168639</v>
+        <v>28.84565789758608</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>296.160238322634</v>
+        <v>295.2552995547309</v>
       </c>
       <c r="B212" t="n">
-        <v>-54.27328169383424</v>
+        <v>28.92434503048685</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>298.9433634841329</v>
+        <v>298.0411081763211</v>
       </c>
       <c r="B213" t="n">
-        <v>-54.19630147288279</v>
+        <v>29.00174142685665</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>301.7182208360513</v>
+        <v>300.8186485926518</v>
       </c>
       <c r="B214" t="n">
-        <v>-54.1205963666406</v>
+        <v>29.07785911955273</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>304.4848282802054</v>
+        <v>303.5879337639854</v>
       </c>
       <c r="B215" t="n">
-        <v>-54.04615491706298</v>
+        <v>29.15270945892357</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>307.2432053941648</v>
+        <v>306.3489720533358</v>
       </c>
       <c r="B216" t="n">
-        <v>-53.97296571705999</v>
+        <v>29.22630358568546</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>309.993371862533</v>
+        <v>309.1018102453005</v>
       </c>
       <c r="B217" t="n">
-        <v>-53.90101745349085</v>
+        <v>29.29865356287672</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>312.7353552484889</v>
+        <v>311.8464394701333</v>
       </c>
       <c r="B218" t="n">
-        <v>-53.83029870747879</v>
+        <v>29.36976988526001</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>315.4691598588997</v>
+        <v>314.5828970138788</v>
       </c>
       <c r="B219" t="n">
-        <v>-53.7607987538286</v>
+        <v>29.43966416483318</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>318.1948247902794</v>
+        <v>317.3112060398988</v>
       </c>
       <c r="B220" t="n">
-        <v>-53.69250607371418</v>
+        <v>29.50834754016796</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>320.9123631825206</v>
+        <v>320.0313770540918</v>
       </c>
       <c r="B221" t="n">
-        <v>-53.62540990625195</v>
+        <v>29.5758307394164</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>323.6217896786177</v>
+        <v>322.743434946361</v>
       </c>
       <c r="B222" t="n">
-        <v>-53.55949953723115</v>
+        <v>29.64212476030525</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>326.3231347291228</v>
+        <v>325.4474031930071</v>
       </c>
       <c r="B223" t="n">
-        <v>-53.49476396089509</v>
+        <v>29.70724046722307</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>329.0164142764788</v>
+        <v>328.143294153544</v>
       </c>
       <c r="B224" t="n">
-        <v>-53.43119261774422</v>
+        <v>29.77118836625542</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>331.7016566490859</v>
+        <v>330.8311437035834</v>
       </c>
       <c r="B225" t="n">
-        <v>-53.36877474724548</v>
+        <v>29.83397942884443</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>334.3788701931097</v>
+        <v>333.5109614918339</v>
       </c>
       <c r="B226" t="n">
-        <v>-53.30750014422955</v>
+        <v>29.89562391512064</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>337.048085807733</v>
+        <v>336.182771336586</v>
       </c>
       <c r="B227" t="n">
-        <v>-53.24735817165694</v>
+        <v>29.95613232924575</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>339.7093286979891</v>
+        <v>338.8465980419114</v>
       </c>
       <c r="B228" t="n">
-        <v>-53.18833842132975</v>
+        <v>30.01551510339866</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>342.3626103062962</v>
+        <v>341.5024581191381</v>
       </c>
       <c r="B229" t="n">
-        <v>-53.13043087760366</v>
+        <v>30.07378239494784</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>345.0079578790942</v>
+        <v>344.1503810467697</v>
       </c>
       <c r="B230" t="n">
-        <v>-53.07362526270612</v>
+        <v>30.13094455706133</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>347.6453917515807</v>
+        <v>346.7903757399993</v>
       </c>
       <c r="B231" t="n">
-        <v>-53.0179115395548</v>
+        <v>30.18701141051716</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>350.2749360084015</v>
+        <v>349.4224794969106</v>
       </c>
       <c r="B232" t="n">
-        <v>-52.96327967926169</v>
+        <v>30.24199329428026</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>352.8966062999502</v>
+        <v>352.0467014506623</v>
       </c>
       <c r="B233" t="n">
-        <v>-52.90971991367479</v>
+        <v>30.29589986512269</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>355.5104239414503</v>
+        <v>354.6630671966468</v>
       </c>
       <c r="B234" t="n">
-        <v>-52.85722243932076</v>
+        <v>30.34874104078503</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>358.1164279476485</v>
+        <v>357.2715998585591</v>
       </c>
       <c r="B235" t="n">
-        <v>-52.80577719094262</v>
+        <v>30.40052659964724</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>360.7146168552644</v>
+        <v>359.8723242700781</v>
       </c>
       <c r="B236" t="n">
-        <v>-52.75537498963342</v>
+        <v>30.45126626662059</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>363.3050267142326</v>
+        <v>362.4652552335028</v>
       </c>
       <c r="B237" t="n">
-        <v>-52.70600599993068</v>
+        <v>30.50096948792114</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>365.8876793019874</v>
+        <v>365.0504273032303</v>
       </c>
       <c r="B238" t="n">
-        <v>-52.6576607535373</v>
+        <v>30.54964600458757</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>368.4625952101597</v>
+        <v>367.6278515474068</v>
       </c>
       <c r="B239" t="n">
-        <v>-52.61032988600459</v>
+        <v>30.59730502754559</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>371.029796372547</v>
+        <v>370.1975474150292</v>
       </c>
       <c r="B240" t="n">
-        <v>-52.56400408884338</v>
+        <v>30.64395585112774</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>373.5892997881552</v>
+        <v>372.7595506670119</v>
       </c>
       <c r="B241" t="n">
-        <v>-52.51867422120529</v>
+        <v>30.68960797959622</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>376.141128153533</v>
+        <v>375.3138714090825</v>
       </c>
       <c r="B242" t="n">
-        <v>-52.47433111799171</v>
+        <v>30.73427037382186</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>378.6853121071446</v>
+        <v>377.8605292129074</v>
       </c>
       <c r="B243" t="n">
-        <v>-52.43096556079391</v>
+        <v>30.77795209131648</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>381.2218741891131</v>
+        <v>380.3995660038515</v>
       </c>
       <c r="B244" t="n">
-        <v>-52.3885685557637</v>
+        <v>30.82066248577223</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>383.7508263434768</v>
+        <v>382.9309863530174</v>
       </c>
       <c r="B245" t="n">
-        <v>-52.34713136003609</v>
+        <v>30.86241019605743</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>386.2722019273673</v>
+        <v>385.4548113889134</v>
       </c>
       <c r="B246" t="n">
-        <v>-52.30664495498149</v>
+        <v>30.90320407091724</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>388.786014254195</v>
+        <v>387.9710759154685</v>
       </c>
       <c r="B247" t="n">
-        <v>-52.26710072596671</v>
+        <v>30.94305309721236</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>391.2922887676271</v>
+        <v>390.4797948481545</v>
       </c>
       <c r="B248" t="n">
-        <v>-52.22848993859355</v>
+        <v>30.98196586318426</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>393.7910497748045</v>
+        <v>392.9809920705517</v>
       </c>
       <c r="B249" t="n">
-        <v>-52.19080395571754</v>
+        <v>31.01995102501689</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>396.2823191886231</v>
+        <v>395.4746902893743</v>
       </c>
       <c r="B250" t="n">
-        <v>-52.15403425329961</v>
+        <v>31.05701714376949</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>398.7661174931826</v>
+        <v>397.9609099853143</v>
       </c>
       <c r="B251" t="n">
-        <v>-52.11817240212787</v>
+        <v>31.09317267283046</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>401.2424674424743</v>
+        <v>400.4396791658372</v>
       </c>
       <c r="B252" t="n">
-        <v>-52.08321001328849</v>
+        <v>31.12842609925332</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>403.7113928559229</v>
+        <v>402.9110059153899</v>
       </c>
       <c r="B253" t="n">
-        <v>-52.04913875760923</v>
+        <v>31.16278555510175</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>406.1729183885931</v>
+        <v>405.3749336779863</v>
       </c>
       <c r="B254" t="n">
-        <v>-52.01595036979108</v>
+        <v>31.19625959200013</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>408.627060527535</v>
+        <v>407.8314707746831</v>
       </c>
       <c r="B255" t="n">
-        <v>-51.98363676623268</v>
+        <v>31.22885620161387</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>411.073851340493</v>
+        <v>410.2806438730939</v>
       </c>
       <c r="B256" t="n">
-        <v>-51.95218973008076</v>
+        <v>31.260583555989</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>413.5132970356192</v>
+        <v>412.7224726799097</v>
       </c>
       <c r="B257" t="n">
-        <v>-51.92160144821537</v>
+        <v>31.29144966330483</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>415.9454397096012</v>
+        <v>415.1569799171248</v>
       </c>
       <c r="B258" t="n">
-        <v>-51.89186372489462</v>
+        <v>31.32146250080325</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>418.3702807806389</v>
+        <v>417.5841872724973</v>
       </c>
       <c r="B259" t="n">
-        <v>-51.86296893754923</v>
+        <v>31.35062996262084</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>420.7878630492873</v>
+        <v>420.0041194381623</v>
       </c>
       <c r="B260" t="n">
-        <v>-51.83490903335274</v>
+        <v>31.37895990862415</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>423.1981970938429</v>
+        <v>422.4168069701705</v>
       </c>
       <c r="B261" t="n">
-        <v>-51.80767641286386</v>
+        <v>31.40646019249635</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>425.6013046455193</v>
+        <v>424.8222556615588</v>
       </c>
       <c r="B262" t="n">
-        <v>-51.78126340973643</v>
+        <v>31.43313831835718</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>427.9972102895219</v>
+        <v>427.2204979755689</v>
       </c>
       <c r="B263" t="n">
-        <v>-51.75566239474023</v>
+        <v>31.4590020260849</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>430.3859365907038</v>
+        <v>429.6115536412503</v>
       </c>
       <c r="B264" t="n">
-        <v>-51.73086582941465</v>
+        <v>31.48405884413282</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>432.7675119293931</v>
+        <v>431.9954432847704</v>
       </c>
       <c r="B265" t="n">
-        <v>-51.70686618466056</v>
+        <v>31.50831624614551</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>435.1419463157945</v>
+        <v>434.3721960848964</v>
       </c>
       <c r="B266" t="n">
-        <v>-51.6836561817355</v>
+        <v>31.53178172453954</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>437.5092718048937</v>
+        <v>436.7418242230959</v>
       </c>
       <c r="B267" t="n">
-        <v>-51.6612283872343</v>
+        <v>31.5544625374458</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>439.8695080936817</v>
+        <v>439.1043566107637</v>
       </c>
       <c r="B268" t="n">
-        <v>-51.63957555615977</v>
+        <v>31.57636604242813</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>442.2226700995851</v>
+        <v>441.4598149402482</v>
       </c>
       <c r="B269" t="n">
-        <v>-51.61869054673303</v>
+        <v>31.59749946061953</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>444.5687932972505</v>
+        <v>443.8082152677569</v>
       </c>
       <c r="B270" t="n">
-        <v>-51.59856609923904</v>
+        <v>31.61786990154633</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>446.9078898983489</v>
+        <v>446.149592423139</v>
       </c>
       <c r="B271" t="n">
-        <v>-51.57919522241542</v>
+        <v>31.63748457285789</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>449.2399831444822</v>
+        <v>448.4839546288048</v>
       </c>
       <c r="B272" t="n">
-        <v>-51.56057088970479</v>
+        <v>31.65635039300147</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>451.5650933368206</v>
+        <v>450.8113277299357</v>
       </c>
       <c r="B273" t="n">
-        <v>-51.54268616046653</v>
+        <v>31.6744743689049</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>453.8832503893938</v>
+        <v>453.1317417735552</v>
       </c>
       <c r="B274" t="n">
-        <v>-51.5255340841228</v>
+        <v>31.691863471906</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>456.1944679942483</v>
+        <v>455.4452094987531</v>
       </c>
       <c r="B275" t="n">
-        <v>-51.5091078935402</v>
+        <v>31.70852448038698</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>458.4987707833889</v>
+        <v>457.7517519640486</v>
       </c>
       <c r="B276" t="n">
-        <v>-51.49340079971418</v>
+        <v>31.72446417887238</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>460.7961820413031</v>
+        <v>460.0514012802761</v>
       </c>
       <c r="B277" t="n">
-        <v>-51.47840608561694</v>
+        <v>31.73968936406487</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>463.086726524877</v>
+        <v>462.3441699937219</v>
       </c>
       <c r="B278" t="n">
-        <v>-51.46411708656805</v>
+        <v>31.75420663993154</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>465.3704118488914</v>
+        <v>464.6300754605433</v>
       </c>
       <c r="B279" t="n">
-        <v>-51.45052729996496</v>
+        <v>31.76802259020272</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>467.647277864657</v>
+        <v>466.9091495291009</v>
       </c>
       <c r="B280" t="n">
-        <v>-51.43763008764319</v>
+        <v>31.78114382621237</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>469.9173315447688</v>
+        <v>469.1814098588522</v>
       </c>
       <c r="B281" t="n">
-        <v>-51.42541906246313</v>
+        <v>31.79357681380742</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>472.1806026396026</v>
+        <v>471.4468825010933</v>
       </c>
       <c r="B282" t="n">
-        <v>-51.41388776535399</v>
+        <v>31.80532800798244</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>474.4371066555792</v>
+        <v>473.7055830395798</v>
       </c>
       <c r="B283" t="n">
-        <v>-51.40302987011955</v>
+        <v>31.81640375160288</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>476.6868783012716</v>
+        <v>475.9575352489018</v>
       </c>
       <c r="B284" t="n">
-        <v>-51.39283901606279</v>
+        <v>31.82681037424453</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>478.9299195505494</v>
+        <v>478.2027534271959</v>
       </c>
       <c r="B285" t="n">
-        <v>-51.38330904792267</v>
+        <v>31.83655410687646</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>481.166265575348</v>
+        <v>480.4412713947402</v>
       </c>
       <c r="B286" t="n">
-        <v>-51.37443371710646</v>
+        <v>31.84564120923972</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>483.3959299461427</v>
+        <v>482.6731020247252</v>
       </c>
       <c r="B287" t="n">
-        <v>-51.36620692224807</v>
+        <v>31.8540777956519</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>485.6189369380061</v>
+        <v>484.8982701713713</v>
       </c>
       <c r="B288" t="n">
-        <v>-51.3586225729378</v>
+        <v>31.86186997538962</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>487.8353117401123</v>
+        <v>487.1167940027702</v>
       </c>
       <c r="B289" t="n">
-        <v>-51.35167463351578</v>
+        <v>31.86902377883257</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>490.0450629066136</v>
+        <v>489.3286899063647</v>
       </c>
       <c r="B290" t="n">
-        <v>-51.34535717163965</v>
+        <v>31.87554518092108</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>492.2482284985197</v>
+        <v>491.5339943127107</v>
       </c>
       <c r="B291" t="n">
-        <v>-51.33966422211077</v>
+        <v>31.88144015932255</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>494.444816906073</v>
+        <v>493.732711651161</v>
       </c>
       <c r="B292" t="n">
-        <v>-51.33458995554753</v>
+        <v>31.88671454963389</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>496.6348508449922</v>
+        <v>495.9248750762509</v>
       </c>
       <c r="B293" t="n">
-        <v>-51.33012855376523</v>
+        <v>31.89137421037796</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>498.8183542499028</v>
+        <v>498.110494247635</v>
       </c>
       <c r="B294" t="n">
-        <v>-51.32627425030398</v>
+        <v>31.89542489451833</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>500.9953495153849</v>
+        <v>500.289597956065</v>
       </c>
       <c r="B295" t="n">
-        <v>-51.32302133541651</v>
+        <v>31.89887234344991</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>503.1658463228112</v>
+        <v>502.4622005199322</v>
       </c>
       <c r="B296" t="n">
-        <v>-51.32036416574834</v>
+        <v>31.90172222192285</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>505.3298769102328</v>
+        <v>504.6283315715518</v>
       </c>
       <c r="B297" t="n">
-        <v>-51.31829711791329</v>
+        <v>31.90398016500541</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>507.4874569697317</v>
+        <v>506.7879982887084</v>
       </c>
       <c r="B298" t="n">
-        <v>-51.31681464003768</v>
+        <v>31.90565173371539</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
-        <v>509.6386068036339</v>
+        <v>508.9412345096687</v>
       </c>
       <c r="B299" t="n">
-        <v>-51.31591122314899</v>
+        <v>31.90674246377898</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
-        <v>511.7833504128452</v>
+        <v>511.0880524808364</v>
       </c>
       <c r="B300" t="n">
-        <v>-51.31558140699599</v>
+        <v>31.90725782524862</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
-        <v>513.9216992824732</v>
+        <v>513.2284742744683</v>
       </c>
       <c r="B301" t="n">
-        <v>-51.3158197806259</v>
+        <v>31.9072032466504</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
-        <v>516.0536791936506</v>
+        <v>515.3625219441484</v>
       </c>
       <c r="B302" t="n">
-        <v>-51.31662097908929</v>
+        <v>31.90658410644969</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
-        <v>518.1793157431237</v>
+        <v>517.4902143470277</v>
       </c>
       <c r="B303" t="n">
-        <v>-51.31797969079881</v>
+        <v>31.9054057356297</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
-        <v>520.2986142271308</v>
+        <v>519.6115669263963</v>
       </c>
       <c r="B304" t="n">
-        <v>-51.31989063610831</v>
+        <v>31.90367342246236</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
-        <v>522.4116095407667</v>
+        <v>521.72660690687</v>
       </c>
       <c r="B305" t="n">
-        <v>-51.32234860496925</v>
+        <v>31.90139239893611</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
-        <v>524.5183130671223</v>
+        <v>523.8353477336738</v>
       </c>
       <c r="B306" t="n">
-        <v>-51.3253484126927</v>
+        <v>31.89856786328198</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
-        <v>526.6187430080281</v>
+        <v>525.9378147494465</v>
       </c>
       <c r="B307" t="n">
-        <v>-51.32888492398718</v>
+        <v>31.8952049538662</v>
       </c>
     </row>
   </sheetData>
